--- a/outputs/autoaprop.xlsx/autoapropxlsx/IQ_DIM.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/IQ_DIM.XLSX
@@ -11,7 +11,7 @@
     <sheet name="Sábado e Domingo" sheetId="257" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Apropriação!$A$1:$AM$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Apropriação!$A$1:$AN$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Sábado e Domingo'!$A$1:$AM$60</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>FA</t>
   </si>
@@ -342,6 +342,22 @@
   </si>
   <si>
     <t>IQ_DIM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORDEM DE
+SERVIÇO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(N. REDUZIDO)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -420,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="138">
+  <borders count="140">
     <border>
       <left/>
       <right/>
@@ -2179,11 +2195,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2547,12 +2589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2644,6 +2680,387 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2665,102 +3082,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2785,278 +3112,232 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3079,233 +3360,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3612,1865 +3666,1909 @@
     <tabColor rgb="FFFFFF99"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG56"/>
+  <dimension ref="A1:BH56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="5" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.28515625" customWidth="1"/>
-    <col min="22" max="22" width="1.28515625" customWidth="1"/>
-    <col min="23" max="39" width="7" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="6" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="21" width="2.7109375" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" customWidth="1"/>
+    <col min="23" max="23" width="1.28515625" customWidth="1"/>
+    <col min="24" max="40" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="148" t="s">
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="159" t="s">
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="162" t="s">
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="164" t="s">
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="246"/>
+      <c r="AA1" s="246"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="248" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="166"/>
-    </row>
-    <row r="2" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="83"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="181"/>
+      <c r="AK1" s="181"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="182"/>
+    </row>
+    <row r="2" spans="1:40" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="7"/>
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
       <c r="Y2" s="83"/>
       <c r="Z2" s="83"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="169"/>
-    </row>
-    <row r="3" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="7"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="249"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="150"/>
+      <c r="AN2" s="151"/>
+    </row>
+    <row r="3" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="239"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="122"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="75"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="75"/>
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
       <c r="Y3" s="75"/>
       <c r="Z3" s="75"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="169"/>
-    </row>
-    <row r="4" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="264"/>
-      <c r="O4" s="264"/>
-      <c r="P4" s="264"/>
-      <c r="Q4" s="264"/>
-      <c r="R4" s="264"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="144" t="s">
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="151"/>
+    </row>
+    <row r="4" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="239"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="168"/>
-      <c r="AH4" s="168"/>
-      <c r="AI4" s="168"/>
-      <c r="AJ4" s="168"/>
-      <c r="AK4" s="168"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="169"/>
-    </row>
-    <row r="5" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="Y4" s="251"/>
+      <c r="Z4" s="251"/>
+      <c r="AA4" s="251"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="249"/>
+      <c r="AD4" s="150"/>
+      <c r="AE4" s="150"/>
+      <c r="AF4" s="150"/>
+      <c r="AG4" s="150"/>
+      <c r="AH4" s="150"/>
+      <c r="AI4" s="150"/>
+      <c r="AJ4" s="150"/>
+      <c r="AK4" s="150"/>
+      <c r="AL4" s="150"/>
+      <c r="AM4" s="150"/>
+      <c r="AN4" s="151"/>
+    </row>
+    <row r="5" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="239"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="264"/>
-      <c r="N5" s="264"/>
-      <c r="O5" s="264"/>
-      <c r="P5" s="264"/>
-      <c r="Q5" s="264"/>
-      <c r="R5" s="264"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="113"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="148" t="s">
+      <c r="W5" s="1"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="230" t="s">
         <v>101</v>
       </c>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="149"/>
-      <c r="AF5" s="149"/>
-      <c r="AG5" s="149"/>
-      <c r="AH5" s="149"/>
-      <c r="AI5" s="149"/>
-      <c r="AJ5" s="149"/>
-      <c r="AK5" s="149"/>
-      <c r="AL5" s="149"/>
-      <c r="AM5" s="150"/>
-    </row>
-    <row r="6" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="141" t="s">
+      <c r="AD5" s="231"/>
+      <c r="AE5" s="231"/>
+      <c r="AF5" s="231"/>
+      <c r="AG5" s="231"/>
+      <c r="AH5" s="231"/>
+      <c r="AI5" s="231"/>
+      <c r="AJ5" s="231"/>
+      <c r="AK5" s="231"/>
+      <c r="AL5" s="231"/>
+      <c r="AM5" s="231"/>
+      <c r="AN5" s="232"/>
+    </row>
+    <row r="6" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="239"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="233" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="264"/>
-      <c r="N6" s="264"/>
-      <c r="O6" s="264"/>
-      <c r="P6" s="264"/>
-      <c r="Q6" s="264"/>
-      <c r="R6" s="264"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="144" t="s">
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="250"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
-      <c r="AM6" s="151"/>
-    </row>
-    <row r="7" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="1"/>
+      <c r="Y6" s="251"/>
+      <c r="Z6" s="251"/>
+      <c r="AA6" s="251"/>
+      <c r="AB6" s="252"/>
+      <c r="AC6" s="233"/>
+      <c r="AD6" s="234"/>
+      <c r="AE6" s="234"/>
+      <c r="AF6" s="234"/>
+      <c r="AG6" s="234"/>
+      <c r="AH6" s="234"/>
+      <c r="AI6" s="234"/>
+      <c r="AJ6" s="234"/>
+      <c r="AK6" s="234"/>
+      <c r="AL6" s="234"/>
+      <c r="AM6" s="234"/>
+      <c r="AN6" s="235"/>
+    </row>
+    <row r="7" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="239"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="142"/>
-      <c r="AJ7" s="142"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="142"/>
-      <c r="AM7" s="151"/>
-    </row>
-    <row r="8" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="141" t="s">
+      <c r="W7" s="1"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="233"/>
+      <c r="AD7" s="234"/>
+      <c r="AE7" s="234"/>
+      <c r="AF7" s="234"/>
+      <c r="AG7" s="234"/>
+      <c r="AH7" s="234"/>
+      <c r="AI7" s="234"/>
+      <c r="AJ7" s="234"/>
+      <c r="AK7" s="234"/>
+      <c r="AL7" s="234"/>
+      <c r="AM7" s="234"/>
+      <c r="AN7" s="235"/>
+    </row>
+    <row r="8" spans="1:40" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="233" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="144" t="s">
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="142"/>
-      <c r="AI8" s="142"/>
-      <c r="AJ8" s="142"/>
-      <c r="AK8" s="142"/>
-      <c r="AL8" s="142"/>
-      <c r="AM8" s="151"/>
-    </row>
-    <row r="9" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="1"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="234"/>
+      <c r="AE8" s="234"/>
+      <c r="AF8" s="234"/>
+      <c r="AG8" s="234"/>
+      <c r="AH8" s="234"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="234"/>
+      <c r="AK8" s="234"/>
+      <c r="AL8" s="234"/>
+      <c r="AM8" s="234"/>
+      <c r="AN8" s="235"/>
+    </row>
+    <row r="9" spans="1:40" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="239"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="255"/>
+      <c r="U9" s="113"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="142"/>
-      <c r="AK9" s="142"/>
-      <c r="AL9" s="142"/>
-      <c r="AM9" s="151"/>
-    </row>
-    <row r="10" spans="1:39" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="173"/>
-      <c r="B10" s="258" t="s">
+      <c r="W9" s="1"/>
+      <c r="X9" s="251"/>
+      <c r="Y9" s="251"/>
+      <c r="Z9" s="251"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="233"/>
+      <c r="AD9" s="234"/>
+      <c r="AE9" s="234"/>
+      <c r="AF9" s="234"/>
+      <c r="AG9" s="234"/>
+      <c r="AH9" s="234"/>
+      <c r="AI9" s="234"/>
+      <c r="AJ9" s="234"/>
+      <c r="AK9" s="234"/>
+      <c r="AL9" s="234"/>
+      <c r="AM9" s="234"/>
+      <c r="AN9" s="235"/>
+    </row>
+    <row r="10" spans="1:40" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="265"/>
+      <c r="B10" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="261" t="s">
+      <c r="D10" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="261" t="s">
+      <c r="E10" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="268"/>
+      <c r="G10" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="181" t="s">
+      <c r="H10" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="181" t="s">
+      <c r="I10" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="181" t="s">
+      <c r="J10" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="181" t="s">
+      <c r="K10" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="181" t="s">
+      <c r="L10" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="184" t="s">
+      <c r="M10" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="185"/>
-      <c r="N10" s="181" t="s">
+      <c r="N10" s="220"/>
+      <c r="O10" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="181" t="s">
+      <c r="P10" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="181" t="s">
+      <c r="Q10" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="181" t="s">
+      <c r="R10" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="184" t="s">
+      <c r="S10" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="185"/>
-      <c r="T10" s="184" t="s">
+      <c r="T10" s="220"/>
+      <c r="U10" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="195"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="181" t="s">
+      <c r="V10" s="225"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="X10" s="181" t="s">
+      <c r="Y10" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="Y10" s="181" t="s">
+      <c r="Z10" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="Z10" s="181" t="s">
+      <c r="AA10" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="AA10" s="181" t="s">
+      <c r="AB10" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="AB10" s="181" t="s">
+      <c r="AC10" s="211" t="s">
         <v>56</v>
       </c>
-      <c r="AC10" s="181" t="s">
+      <c r="AD10" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="181" t="s">
+      <c r="AE10" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="AE10" s="181" t="s">
+      <c r="AF10" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="AF10" s="181" t="s">
+      <c r="AG10" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="AG10" s="181" t="s">
+      <c r="AH10" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="AH10" s="181" t="s">
+      <c r="AI10" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="AI10" s="181" t="s">
+      <c r="AJ10" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="AJ10" s="181" t="s">
+      <c r="AK10" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="AK10" s="181" t="s">
+      <c r="AL10" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="AL10" s="181" t="s">
+      <c r="AM10" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="AM10" s="190" t="s">
+      <c r="AN10" s="216" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="174"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="182"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="196"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="182"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="182"/>
-      <c r="AJ11" s="182"/>
-      <c r="AK11" s="182"/>
-      <c r="AL11" s="182"/>
-      <c r="AM11" s="191"/>
-    </row>
-    <row r="12" spans="1:39" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="174"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="196"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="182"/>
-      <c r="AJ12" s="182"/>
-      <c r="AK12" s="182"/>
-      <c r="AL12" s="182"/>
-      <c r="AM12" s="191"/>
-    </row>
-    <row r="13" spans="1:39" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="174"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="196"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="182"/>
-      <c r="X13" s="182"/>
-      <c r="Y13" s="182"/>
-      <c r="Z13" s="182"/>
-      <c r="AA13" s="182"/>
-      <c r="AB13" s="182"/>
-      <c r="AC13" s="182"/>
-      <c r="AD13" s="182"/>
-      <c r="AE13" s="182"/>
-      <c r="AF13" s="182"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="182"/>
-      <c r="AJ13" s="182"/>
-      <c r="AK13" s="182"/>
-      <c r="AL13" s="182"/>
-      <c r="AM13" s="191"/>
-    </row>
-    <row r="14" spans="1:39" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="174"/>
-      <c r="B14" s="259"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="182"/>
-      <c r="X14" s="182"/>
-      <c r="Y14" s="182"/>
-      <c r="Z14" s="182"/>
-      <c r="AA14" s="182"/>
-      <c r="AB14" s="182"/>
-      <c r="AC14" s="182"/>
-      <c r="AD14" s="182"/>
-      <c r="AE14" s="182"/>
-      <c r="AF14" s="182"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="182"/>
-      <c r="AJ14" s="182"/>
-      <c r="AK14" s="182"/>
-      <c r="AL14" s="182"/>
-      <c r="AM14" s="191"/>
-    </row>
-    <row r="15" spans="1:39" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="196"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="182"/>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="182"/>
-      <c r="Z15" s="182"/>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="182"/>
-      <c r="AE15" s="182"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="182"/>
-      <c r="AJ15" s="182"/>
-      <c r="AK15" s="182"/>
-      <c r="AL15" s="182"/>
-      <c r="AM15" s="191"/>
-    </row>
-    <row r="16" spans="1:39" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="189"/>
-      <c r="T16" s="188"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="189"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="183"/>
-      <c r="AF16" s="183"/>
-      <c r="AG16" s="183"/>
-      <c r="AH16" s="183"/>
-      <c r="AI16" s="183"/>
-      <c r="AJ16" s="183"/>
-      <c r="AK16" s="183"/>
-      <c r="AL16" s="183"/>
-      <c r="AM16" s="192"/>
-    </row>
-    <row r="17" spans="1:39" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="174"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="265" t="s">
+    <row r="11" spans="1:40" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="266"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="222"/>
+      <c r="O11" s="212"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="212"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="226"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="212"/>
+      <c r="Y11" s="212"/>
+      <c r="Z11" s="212"/>
+      <c r="AA11" s="212"/>
+      <c r="AB11" s="212"/>
+      <c r="AC11" s="212"/>
+      <c r="AD11" s="212"/>
+      <c r="AE11" s="212"/>
+      <c r="AF11" s="212"/>
+      <c r="AG11" s="212"/>
+      <c r="AH11" s="212"/>
+      <c r="AI11" s="212"/>
+      <c r="AJ11" s="212"/>
+      <c r="AK11" s="212"/>
+      <c r="AL11" s="212"/>
+      <c r="AM11" s="212"/>
+      <c r="AN11" s="217"/>
+    </row>
+    <row r="12" spans="1:40" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="266"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="269"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="222"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="212"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="226"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="212"/>
+      <c r="Y12" s="212"/>
+      <c r="Z12" s="212"/>
+      <c r="AA12" s="212"/>
+      <c r="AB12" s="212"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="212"/>
+      <c r="AH12" s="212"/>
+      <c r="AI12" s="212"/>
+      <c r="AJ12" s="212"/>
+      <c r="AK12" s="212"/>
+      <c r="AL12" s="212"/>
+      <c r="AM12" s="212"/>
+      <c r="AN12" s="217"/>
+    </row>
+    <row r="13" spans="1:40" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="266"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="221"/>
+      <c r="N13" s="222"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="212"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="226"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="212"/>
+      <c r="Y13" s="212"/>
+      <c r="Z13" s="212"/>
+      <c r="AA13" s="212"/>
+      <c r="AB13" s="212"/>
+      <c r="AC13" s="212"/>
+      <c r="AD13" s="212"/>
+      <c r="AE13" s="212"/>
+      <c r="AF13" s="212"/>
+      <c r="AG13" s="212"/>
+      <c r="AH13" s="212"/>
+      <c r="AI13" s="212"/>
+      <c r="AJ13" s="212"/>
+      <c r="AK13" s="212"/>
+      <c r="AL13" s="212"/>
+      <c r="AM13" s="212"/>
+      <c r="AN13" s="217"/>
+    </row>
+    <row r="14" spans="1:40" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="266"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="269"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="222"/>
+      <c r="O14" s="212"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="212"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="226"/>
+      <c r="W14" s="222"/>
+      <c r="X14" s="212"/>
+      <c r="Y14" s="212"/>
+      <c r="Z14" s="212"/>
+      <c r="AA14" s="212"/>
+      <c r="AB14" s="212"/>
+      <c r="AC14" s="212"/>
+      <c r="AD14" s="212"/>
+      <c r="AE14" s="212"/>
+      <c r="AF14" s="212"/>
+      <c r="AG14" s="212"/>
+      <c r="AH14" s="212"/>
+      <c r="AI14" s="212"/>
+      <c r="AJ14" s="212"/>
+      <c r="AK14" s="212"/>
+      <c r="AL14" s="212"/>
+      <c r="AM14" s="212"/>
+      <c r="AN14" s="217"/>
+    </row>
+    <row r="15" spans="1:40" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="266"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="212"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="212"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="221"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="226"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="212"/>
+      <c r="Y15" s="212"/>
+      <c r="Z15" s="212"/>
+      <c r="AA15" s="212"/>
+      <c r="AB15" s="212"/>
+      <c r="AC15" s="212"/>
+      <c r="AD15" s="212"/>
+      <c r="AE15" s="212"/>
+      <c r="AF15" s="212"/>
+      <c r="AG15" s="212"/>
+      <c r="AH15" s="212"/>
+      <c r="AI15" s="212"/>
+      <c r="AJ15" s="212"/>
+      <c r="AK15" s="212"/>
+      <c r="AL15" s="212"/>
+      <c r="AM15" s="212"/>
+      <c r="AN15" s="217"/>
+    </row>
+    <row r="16" spans="1:40" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="266"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="213"/>
+      <c r="P16" s="213"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="213"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="224"/>
+      <c r="U16" s="223"/>
+      <c r="V16" s="227"/>
+      <c r="W16" s="224"/>
+      <c r="X16" s="213"/>
+      <c r="Y16" s="213"/>
+      <c r="Z16" s="213"/>
+      <c r="AA16" s="213"/>
+      <c r="AB16" s="213"/>
+      <c r="AC16" s="213"/>
+      <c r="AD16" s="213"/>
+      <c r="AE16" s="213"/>
+      <c r="AF16" s="213"/>
+      <c r="AG16" s="213"/>
+      <c r="AH16" s="213"/>
+      <c r="AI16" s="213"/>
+      <c r="AJ16" s="213"/>
+      <c r="AK16" s="213"/>
+      <c r="AL16" s="213"/>
+      <c r="AM16" s="213"/>
+      <c r="AN16" s="218"/>
+    </row>
+    <row r="17" spans="1:40" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="266"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="267" t="s">
+      <c r="G17" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="193" t="s">
+      <c r="H17" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="193" t="s">
+      <c r="I17" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="193" t="s">
+      <c r="J17" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="193" t="s">
+      <c r="K17" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="193" t="s">
+      <c r="L17" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="198" t="s">
+      <c r="M17" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="200"/>
-      <c r="N17" s="193" t="s">
+      <c r="N17" s="140"/>
+      <c r="O17" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="193" t="s">
+      <c r="P17" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="193" t="s">
+      <c r="Q17" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="193" t="s">
+      <c r="R17" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="R17" s="198" t="s">
+      <c r="S17" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="200"/>
-      <c r="T17" s="198" t="s">
+      <c r="T17" s="140"/>
+      <c r="U17" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="U17" s="199"/>
-      <c r="V17" s="200"/>
-      <c r="W17" s="193" t="s">
+      <c r="V17" s="214"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="X17" s="193" t="s">
+      <c r="Y17" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="Y17" s="193" t="s">
+      <c r="Z17" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="Z17" s="193" t="s">
+      <c r="AA17" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="AA17" s="193" t="s">
+      <c r="AB17" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="AB17" s="193" t="s">
+      <c r="AC17" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="AC17" s="193" t="s">
+      <c r="AD17" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="AD17" s="193" t="s">
+      <c r="AE17" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="AE17" s="193" t="s">
+      <c r="AF17" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="AF17" s="193" t="s">
+      <c r="AG17" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="AG17" s="193" t="s">
+      <c r="AH17" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="AH17" s="193" t="s">
+      <c r="AI17" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="AI17" s="193" t="s">
+      <c r="AJ17" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="AJ17" s="193" t="s">
+      <c r="AK17" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="AK17" s="193" t="s">
+      <c r="AL17" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="AL17" s="193" t="s">
+      <c r="AM17" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="AM17" s="204" t="s">
+      <c r="AN17" s="207" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="175"/>
-      <c r="B18" s="260"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="194"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="201"/>
-      <c r="S18" s="203"/>
-      <c r="T18" s="201"/>
-      <c r="U18" s="202"/>
-      <c r="V18" s="203"/>
-      <c r="W18" s="194"/>
-      <c r="X18" s="194"/>
-      <c r="Y18" s="194"/>
-      <c r="Z18" s="194"/>
-      <c r="AA18" s="194"/>
-      <c r="AB18" s="194"/>
-      <c r="AC18" s="194"/>
-      <c r="AD18" s="194"/>
-      <c r="AE18" s="194"/>
-      <c r="AF18" s="194"/>
-      <c r="AG18" s="194"/>
-      <c r="AH18" s="194"/>
-      <c r="AI18" s="194"/>
-      <c r="AJ18" s="194"/>
-      <c r="AK18" s="194"/>
-      <c r="AL18" s="194"/>
-      <c r="AM18" s="205"/>
-    </row>
-    <row r="19" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="206" t="s">
+    <row r="18" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="267"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="141"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="215"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="144"/>
+      <c r="Y18" s="144"/>
+      <c r="Z18" s="144"/>
+      <c r="AA18" s="144"/>
+      <c r="AB18" s="144"/>
+      <c r="AC18" s="144"/>
+      <c r="AD18" s="144"/>
+      <c r="AE18" s="144"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="144"/>
+      <c r="AK18" s="144"/>
+      <c r="AL18" s="144"/>
+      <c r="AM18" s="144"/>
+      <c r="AN18" s="208"/>
+    </row>
+    <row r="19" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="208"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
       <c r="M19" s="209"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="209"/>
-      <c r="S19" s="209"/>
-      <c r="T19" s="208"/>
+      <c r="N19" s="210"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="210"/>
+      <c r="T19" s="210"/>
       <c r="U19" s="209"/>
-      <c r="V19" s="209"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="122"/>
+      <c r="V19" s="210"/>
+      <c r="W19" s="210"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="120"/>
       <c r="AL19" s="120"/>
-      <c r="AM19" s="123"/>
-    </row>
-    <row r="20" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="206"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="121"/>
+    </row>
+    <row r="20" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="196"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="211"/>
-      <c r="S20" s="211"/>
-      <c r="T20" s="210"/>
-      <c r="U20" s="211"/>
-      <c r="V20" s="211"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="94"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="203"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="104"/>
       <c r="AK20" s="94"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="31"/>
-    </row>
-    <row r="21" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="206"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="31"/>
+    </row>
+    <row r="21" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="196"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="212"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="190"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
-      <c r="R21" s="213"/>
-      <c r="S21" s="213"/>
-      <c r="T21" s="212"/>
-      <c r="U21" s="213"/>
-      <c r="V21" s="213"/>
-      <c r="W21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="191"/>
+      <c r="V21" s="190"/>
+      <c r="W21" s="190"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="37"/>
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
       <c r="AG21" s="35"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="95"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="35"/>
       <c r="AK21" s="95"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="39"/>
-    </row>
-    <row r="22" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="206"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="39"/>
+    </row>
+    <row r="22" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="196"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="210"/>
-      <c r="M22" s="211"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="211"/>
-      <c r="S22" s="211"/>
-      <c r="T22" s="210"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="94"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="204"/>
+      <c r="T22" s="204"/>
+      <c r="U22" s="203"/>
+      <c r="V22" s="204"/>
+      <c r="W22" s="204"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="104"/>
       <c r="AK22" s="94"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="31"/>
-    </row>
-    <row r="23" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="206"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="31"/>
+    </row>
+    <row r="23" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="196"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="212"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="190"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
-      <c r="R23" s="213"/>
-      <c r="S23" s="213"/>
-      <c r="T23" s="212"/>
-      <c r="U23" s="213"/>
-      <c r="V23" s="213"/>
-      <c r="W23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="190"/>
+      <c r="W23" s="190"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="35"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="37"/>
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
       <c r="AF23" s="35"/>
       <c r="AG23" s="35"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="95"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="35"/>
       <c r="AK23" s="95"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="39"/>
-    </row>
-    <row r="24" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="206"/>
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="39"/>
+    </row>
+    <row r="24" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="196"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="211"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211"/>
-      <c r="T24" s="210"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="94"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="204"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="204"/>
+      <c r="T24" s="204"/>
+      <c r="U24" s="203"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="104"/>
       <c r="AK24" s="94"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="31"/>
-    </row>
-    <row r="25" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="206"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="31"/>
+    </row>
+    <row r="25" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="196"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
-      <c r="L25" s="212"/>
-      <c r="M25" s="213"/>
-      <c r="N25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="190"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
-      <c r="R25" s="213"/>
-      <c r="S25" s="213"/>
-      <c r="T25" s="212"/>
-      <c r="U25" s="213"/>
-      <c r="V25" s="213"/>
-      <c r="W25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="190"/>
+      <c r="T25" s="190"/>
+      <c r="U25" s="191"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="190"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
       <c r="AA25" s="35"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="37"/>
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
       <c r="AF25" s="35"/>
       <c r="AG25" s="35"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="95"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="35"/>
       <c r="AK25" s="95"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="39"/>
-    </row>
-    <row r="26" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="206"/>
+      <c r="AL25" s="95"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="39"/>
+    </row>
+    <row r="26" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="196"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="211"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="211"/>
-      <c r="T26" s="210"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="211"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="94"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="203"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="104"/>
       <c r="AK26" s="94"/>
-      <c r="AL26" s="106"/>
-      <c r="AM26" s="31"/>
-    </row>
-    <row r="27" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="206"/>
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="31"/>
+    </row>
+    <row r="27" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="196"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="212"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="190"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
-      <c r="R27" s="213"/>
-      <c r="S27" s="213"/>
-      <c r="T27" s="212"/>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="191"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="37"/>
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
       <c r="AF27" s="35"/>
       <c r="AG27" s="35"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="95"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="35"/>
       <c r="AK27" s="95"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="39"/>
-    </row>
-    <row r="28" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="206"/>
+      <c r="AL27" s="95"/>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="39"/>
+    </row>
+    <row r="28" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="196"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="210"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="210"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="94"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="203"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="203"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="204"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="104"/>
       <c r="AK28" s="94"/>
-      <c r="AL28" s="106"/>
-      <c r="AM28" s="31"/>
-    </row>
-    <row r="29" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="206"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="31"/>
+    </row>
+    <row r="29" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="196"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="212"/>
-      <c r="M29" s="213"/>
-      <c r="N29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="190"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
-      <c r="R29" s="213"/>
-      <c r="S29" s="213"/>
-      <c r="T29" s="212"/>
-      <c r="U29" s="213"/>
-      <c r="V29" s="213"/>
-      <c r="W29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="190"/>
+      <c r="T29" s="190"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="190"/>
+      <c r="W29" s="190"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
       <c r="AA29" s="35"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="37"/>
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
       <c r="AG29" s="35"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="95"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="35"/>
       <c r="AK29" s="95"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="39"/>
-    </row>
-    <row r="30" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="206"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="39"/>
+    </row>
+    <row r="30" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="196"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="210"/>
-      <c r="M30" s="211"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="210"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="61"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="61"/>
-      <c r="AI30" s="106"/>
-      <c r="AJ30" s="94"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="203"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="104"/>
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="104"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="104"/>
       <c r="AK30" s="94"/>
-      <c r="AL30" s="106"/>
-      <c r="AM30" s="31"/>
-    </row>
-    <row r="31" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="206"/>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="104"/>
+      <c r="AN30" s="31"/>
+    </row>
+    <row r="31" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="196"/>
       <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
-      <c r="L31" s="212"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="190"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-      <c r="T31" s="212"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="190"/>
+      <c r="T31" s="190"/>
+      <c r="U31" s="191"/>
+      <c r="V31" s="190"/>
+      <c r="W31" s="190"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="37"/>
       <c r="AD31" s="35"/>
       <c r="AE31" s="35"/>
       <c r="AF31" s="35"/>
       <c r="AG31" s="35"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="95"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="35"/>
       <c r="AK31" s="95"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="39"/>
-    </row>
-    <row r="32" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="206"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="39"/>
+    </row>
+    <row r="32" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="196"/>
       <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="210"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="210"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="106"/>
-      <c r="AD32" s="106"/>
-      <c r="AE32" s="106"/>
-      <c r="AF32" s="106"/>
-      <c r="AG32" s="106"/>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="106"/>
-      <c r="AJ32" s="94"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="203"/>
+      <c r="N32" s="204"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="204"/>
+      <c r="U32" s="203"/>
+      <c r="V32" s="204"/>
+      <c r="W32" s="204"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="104"/>
+      <c r="AF32" s="104"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="104"/>
       <c r="AK32" s="94"/>
-      <c r="AL32" s="106"/>
-      <c r="AM32" s="31"/>
-    </row>
-    <row r="33" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="207"/>
+      <c r="AL32" s="94"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="31"/>
+    </row>
+    <row r="33" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="197"/>
       <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="215"/>
-      <c r="N33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="205"/>
+      <c r="N33" s="206"/>
       <c r="O33" s="52"/>
       <c r="P33" s="52"/>
       <c r="Q33" s="52"/>
-      <c r="R33" s="215"/>
-      <c r="S33" s="215"/>
-      <c r="T33" s="214"/>
-      <c r="U33" s="215"/>
-      <c r="V33" s="215"/>
-      <c r="W33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="206"/>
+      <c r="T33" s="206"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="206"/>
+      <c r="W33" s="206"/>
       <c r="X33" s="52"/>
       <c r="Y33" s="52"/>
       <c r="Z33" s="52"/>
       <c r="AA33" s="52"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="43"/>
       <c r="AD33" s="52"/>
       <c r="AE33" s="52"/>
       <c r="AF33" s="52"/>
       <c r="AG33" s="52"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="96"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="52"/>
       <c r="AK33" s="96"/>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="54"/>
-    </row>
-    <row r="34" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="216" t="s">
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="54"/>
+    </row>
+    <row r="34" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="195" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="217"/>
-      <c r="M34" s="218"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="218"/>
-      <c r="S34" s="218"/>
-      <c r="T34" s="217"/>
-      <c r="U34" s="218"/>
-      <c r="V34" s="218"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="110"/>
-      <c r="AJ34" s="97"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="198"/>
+      <c r="N34" s="199"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="199"/>
+      <c r="T34" s="199"/>
+      <c r="U34" s="198"/>
+      <c r="V34" s="199"/>
+      <c r="W34" s="199"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="108"/>
+      <c r="AH34" s="108"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="108"/>
       <c r="AK34" s="97"/>
-      <c r="AL34" s="110"/>
-      <c r="AM34" s="48"/>
-    </row>
-    <row r="35" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="206"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="108"/>
+      <c r="AN34" s="48"/>
+    </row>
+    <row r="35" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="196"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="35"/>
-      <c r="L35" s="212"/>
-      <c r="M35" s="213"/>
-      <c r="N35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="190"/>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="35"/>
-      <c r="R35" s="213"/>
-      <c r="S35" s="213"/>
-      <c r="T35" s="212"/>
-      <c r="U35" s="213"/>
-      <c r="V35" s="213"/>
-      <c r="W35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="190"/>
+      <c r="T35" s="190"/>
+      <c r="U35" s="191"/>
+      <c r="V35" s="190"/>
+      <c r="W35" s="190"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
       <c r="Z35" s="35"/>
       <c r="AA35" s="35"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="37"/>
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
       <c r="AF35" s="35"/>
       <c r="AG35" s="35"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="95"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="35"/>
       <c r="AK35" s="95"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="39"/>
-    </row>
-    <row r="36" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="206"/>
+      <c r="AL35" s="95"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="39"/>
+    </row>
+    <row r="36" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="196"/>
       <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="210"/>
-      <c r="M36" s="211"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="211"/>
-      <c r="S36" s="211"/>
-      <c r="T36" s="210"/>
-      <c r="U36" s="211"/>
-      <c r="V36" s="211"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="106"/>
-      <c r="AD36" s="106"/>
-      <c r="AE36" s="106"/>
-      <c r="AF36" s="106"/>
-      <c r="AG36" s="106"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="106"/>
-      <c r="AJ36" s="94"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="203"/>
+      <c r="N36" s="204"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="204"/>
+      <c r="T36" s="204"/>
+      <c r="U36" s="203"/>
+      <c r="V36" s="204"/>
+      <c r="W36" s="204"/>
+      <c r="X36" s="104"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="104"/>
+      <c r="AF36" s="104"/>
+      <c r="AG36" s="104"/>
+      <c r="AH36" s="104"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="104"/>
       <c r="AK36" s="94"/>
-      <c r="AL36" s="106"/>
-      <c r="AM36" s="31"/>
-    </row>
-    <row r="37" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="207"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="104"/>
+      <c r="AN36" s="31"/>
+    </row>
+    <row r="37" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="197"/>
       <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
-      <c r="L37" s="214"/>
-      <c r="M37" s="215"/>
-      <c r="N37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="206"/>
       <c r="O37" s="52"/>
       <c r="P37" s="52"/>
       <c r="Q37" s="52"/>
-      <c r="R37" s="215"/>
-      <c r="S37" s="215"/>
-      <c r="T37" s="214"/>
-      <c r="U37" s="215"/>
-      <c r="V37" s="215"/>
-      <c r="W37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="206"/>
+      <c r="T37" s="206"/>
+      <c r="U37" s="205"/>
+      <c r="V37" s="206"/>
+      <c r="W37" s="206"/>
       <c r="X37" s="52"/>
       <c r="Y37" s="52"/>
       <c r="Z37" s="52"/>
       <c r="AA37" s="52"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="43"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
       <c r="AG37" s="52"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="52"/>
-      <c r="AJ37" s="96"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="52"/>
       <c r="AK37" s="96"/>
-      <c r="AL37" s="52"/>
-      <c r="AM37" s="54"/>
-    </row>
-    <row r="38" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="216" t="s">
+      <c r="AL37" s="96"/>
+      <c r="AM37" s="52"/>
+      <c r="AN37" s="54"/>
+    </row>
+    <row r="38" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="195" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="217"/>
-      <c r="M38" s="218"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="218"/>
-      <c r="S38" s="218"/>
-      <c r="T38" s="217"/>
-      <c r="U38" s="218"/>
-      <c r="V38" s="218"/>
-      <c r="W38" s="110"/>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="110"/>
-      <c r="Z38" s="110"/>
-      <c r="AA38" s="110"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="110"/>
-      <c r="AD38" s="110"/>
-      <c r="AE38" s="110"/>
-      <c r="AF38" s="110"/>
-      <c r="AG38" s="110"/>
-      <c r="AH38" s="63"/>
-      <c r="AI38" s="110"/>
-      <c r="AJ38" s="97"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="198"/>
+      <c r="N38" s="199"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="199"/>
+      <c r="T38" s="199"/>
+      <c r="U38" s="198"/>
+      <c r="V38" s="199"/>
+      <c r="W38" s="199"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="108"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="108"/>
+      <c r="AH38" s="108"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="108"/>
       <c r="AK38" s="97"/>
-      <c r="AL38" s="110"/>
-      <c r="AM38" s="48"/>
-    </row>
-    <row r="39" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="206"/>
+      <c r="AL38" s="97"/>
+      <c r="AM38" s="108"/>
+      <c r="AN38" s="48"/>
+    </row>
+    <row r="39" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="196"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="49"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
       <c r="K39" s="35"/>
-      <c r="L39" s="212"/>
-      <c r="M39" s="213"/>
-      <c r="N39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="190"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
-      <c r="R39" s="213"/>
-      <c r="S39" s="213"/>
-      <c r="T39" s="212"/>
-      <c r="U39" s="213"/>
-      <c r="V39" s="213"/>
-      <c r="W39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="190"/>
+      <c r="T39" s="190"/>
+      <c r="U39" s="191"/>
+      <c r="V39" s="190"/>
+      <c r="W39" s="190"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
       <c r="Z39" s="35"/>
       <c r="AA39" s="35"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="37"/>
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
       <c r="AF39" s="35"/>
       <c r="AG39" s="35"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="95"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="35"/>
       <c r="AK39" s="95"/>
-      <c r="AL39" s="35"/>
-      <c r="AM39" s="39"/>
-    </row>
-    <row r="40" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="206"/>
+      <c r="AL39" s="95"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="39"/>
+    </row>
+    <row r="40" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="196"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="210"/>
-      <c r="M40" s="211"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="211"/>
-      <c r="S40" s="211"/>
-      <c r="T40" s="210"/>
-      <c r="U40" s="211"/>
-      <c r="V40" s="211"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="61"/>
-      <c r="AC40" s="106"/>
-      <c r="AD40" s="106"/>
-      <c r="AE40" s="106"/>
-      <c r="AF40" s="106"/>
-      <c r="AG40" s="106"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="106"/>
-      <c r="AJ40" s="94"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="203"/>
+      <c r="N40" s="204"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="204"/>
+      <c r="T40" s="204"/>
+      <c r="U40" s="203"/>
+      <c r="V40" s="204"/>
+      <c r="W40" s="204"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="104"/>
+      <c r="AE40" s="104"/>
+      <c r="AF40" s="104"/>
+      <c r="AG40" s="104"/>
+      <c r="AH40" s="104"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="104"/>
       <c r="AK40" s="94"/>
-      <c r="AL40" s="106"/>
-      <c r="AM40" s="31"/>
-    </row>
-    <row r="41" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="207"/>
+      <c r="AL40" s="94"/>
+      <c r="AM40" s="104"/>
+      <c r="AN40" s="31"/>
+    </row>
+    <row r="41" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="197"/>
       <c r="B41" s="40"/>
-      <c r="C41" s="50"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
       <c r="K41" s="52"/>
-      <c r="L41" s="214"/>
-      <c r="M41" s="215"/>
-      <c r="N41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="206"/>
       <c r="O41" s="52"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="52"/>
-      <c r="R41" s="215"/>
-      <c r="S41" s="215"/>
-      <c r="T41" s="214"/>
-      <c r="U41" s="215"/>
-      <c r="V41" s="215"/>
-      <c r="W41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="206"/>
+      <c r="T41" s="206"/>
+      <c r="U41" s="205"/>
+      <c r="V41" s="206"/>
+      <c r="W41" s="206"/>
       <c r="X41" s="52"/>
       <c r="Y41" s="52"/>
       <c r="Z41" s="52"/>
       <c r="AA41" s="52"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="43"/>
       <c r="AD41" s="52"/>
       <c r="AE41" s="52"/>
       <c r="AF41" s="52"/>
       <c r="AG41" s="52"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="96"/>
-      <c r="AK41" s="98"/>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="54"/>
-    </row>
-    <row r="42" spans="1:39" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="96"/>
+      <c r="AL41" s="98"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="54"/>
+    </row>
+    <row r="42" spans="1:40" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="102"/>
       <c r="B42" s="102"/>
       <c r="C42" s="102"/>
@@ -5482,18 +5580,18 @@
       <c r="I42" s="102"/>
       <c r="J42" s="102"/>
       <c r="K42" s="102"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="194"/>
       <c r="O42" s="102"/>
       <c r="P42" s="102"/>
       <c r="Q42" s="102"/>
       <c r="R42" s="102"/>
       <c r="S42" s="102"/>
-      <c r="T42" s="219"/>
-      <c r="U42" s="219"/>
-      <c r="V42" s="219"/>
-      <c r="W42" s="102"/>
+      <c r="T42" s="102"/>
+      <c r="U42" s="194"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="194"/>
       <c r="X42" s="102"/>
       <c r="Y42" s="102"/>
       <c r="Z42" s="102"/>
@@ -5510,313 +5608,320 @@
       <c r="AK42" s="102"/>
       <c r="AL42" s="102"/>
       <c r="AM42" s="102"/>
-    </row>
-    <row r="43" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="220" t="s">
+      <c r="AN42" s="102"/>
+    </row>
+    <row r="43" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="221"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="77"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="46"/>
       <c r="H43" s="77"/>
       <c r="I43" s="77"/>
       <c r="J43" s="77"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="217"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="199"/>
       <c r="O43" s="77"/>
       <c r="P43" s="77"/>
       <c r="Q43" s="77"/>
-      <c r="R43" s="218"/>
-      <c r="S43" s="218"/>
-      <c r="T43" s="217"/>
-      <c r="U43" s="218"/>
-      <c r="V43" s="218"/>
-      <c r="W43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="199"/>
+      <c r="T43" s="199"/>
+      <c r="U43" s="198"/>
+      <c r="V43" s="199"/>
+      <c r="W43" s="199"/>
       <c r="X43" s="77"/>
       <c r="Y43" s="77"/>
       <c r="Z43" s="77"/>
-      <c r="AA43" s="110"/>
-      <c r="AB43" s="63"/>
-      <c r="AC43" s="77"/>
-      <c r="AD43" s="63"/>
-      <c r="AE43" s="77"/>
-      <c r="AF43" s="63"/>
-      <c r="AG43" s="110"/>
-      <c r="AH43" s="63"/>
-      <c r="AI43" s="77"/>
-      <c r="AJ43" s="63"/>
-      <c r="AK43" s="77"/>
-      <c r="AL43" s="63"/>
-      <c r="AM43" s="48"/>
-    </row>
-    <row r="44" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="222"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="223"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="108"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="77"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="77"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="108"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="77"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="77"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="48"/>
+    </row>
+    <row r="44" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="55"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
       <c r="J44" s="56"/>
       <c r="K44" s="56"/>
-      <c r="L44" s="212"/>
-      <c r="M44" s="213"/>
-      <c r="N44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="191"/>
+      <c r="N44" s="190"/>
       <c r="O44" s="56"/>
       <c r="P44" s="56"/>
       <c r="Q44" s="56"/>
-      <c r="R44" s="213"/>
-      <c r="S44" s="213"/>
-      <c r="T44" s="212"/>
-      <c r="U44" s="213"/>
-      <c r="V44" s="213"/>
-      <c r="W44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="190"/>
+      <c r="T44" s="190"/>
+      <c r="U44" s="191"/>
+      <c r="V44" s="190"/>
+      <c r="W44" s="190"/>
       <c r="X44" s="56"/>
       <c r="Y44" s="56"/>
       <c r="Z44" s="56"/>
       <c r="AA44" s="56"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="56"/>
-      <c r="AD44" s="58"/>
-      <c r="AE44" s="56"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="56"/>
-      <c r="AH44" s="58"/>
-      <c r="AI44" s="56"/>
-      <c r="AJ44" s="58"/>
-      <c r="AK44" s="56"/>
-      <c r="AL44" s="58"/>
-      <c r="AM44" s="59"/>
-    </row>
-    <row r="45" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="222"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="78"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="56"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="58"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="58"/>
+      <c r="AN44" s="59"/>
+    </row>
+    <row r="45" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="149"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="29"/>
       <c r="H45" s="78"/>
       <c r="I45" s="78"/>
       <c r="J45" s="78"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="211"/>
-      <c r="N45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="203"/>
+      <c r="N45" s="204"/>
       <c r="O45" s="78"/>
       <c r="P45" s="78"/>
       <c r="Q45" s="78"/>
-      <c r="R45" s="211"/>
-      <c r="S45" s="211"/>
-      <c r="T45" s="210"/>
-      <c r="U45" s="211"/>
-      <c r="V45" s="211"/>
-      <c r="W45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="204"/>
+      <c r="T45" s="204"/>
+      <c r="U45" s="203"/>
+      <c r="V45" s="204"/>
+      <c r="W45" s="204"/>
       <c r="X45" s="78"/>
       <c r="Y45" s="78"/>
       <c r="Z45" s="78"/>
-      <c r="AA45" s="106"/>
-      <c r="AB45" s="61"/>
-      <c r="AC45" s="78"/>
-      <c r="AD45" s="61"/>
-      <c r="AE45" s="78"/>
-      <c r="AF45" s="61"/>
-      <c r="AG45" s="106"/>
-      <c r="AH45" s="61"/>
-      <c r="AI45" s="78"/>
-      <c r="AJ45" s="61"/>
-      <c r="AK45" s="78"/>
-      <c r="AL45" s="61"/>
-      <c r="AM45" s="31"/>
-    </row>
-    <row r="46" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="222"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="223"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
+      <c r="AA45" s="78"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="78"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="78"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="104"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="78"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="31"/>
+    </row>
+    <row r="46" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="149"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56"/>
       <c r="J46" s="56"/>
       <c r="K46" s="56"/>
-      <c r="L46" s="212"/>
-      <c r="M46" s="213"/>
-      <c r="N46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="191"/>
+      <c r="N46" s="190"/>
       <c r="O46" s="56"/>
       <c r="P46" s="56"/>
       <c r="Q46" s="56"/>
-      <c r="R46" s="213"/>
-      <c r="S46" s="213"/>
-      <c r="T46" s="212"/>
-      <c r="U46" s="213"/>
-      <c r="V46" s="213"/>
-      <c r="W46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="190"/>
+      <c r="T46" s="190"/>
+      <c r="U46" s="191"/>
+      <c r="V46" s="190"/>
+      <c r="W46" s="190"/>
       <c r="X46" s="56"/>
       <c r="Y46" s="56"/>
       <c r="Z46" s="56"/>
       <c r="AA46" s="56"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="58"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="58"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="58"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="58"/>
-      <c r="AM46" s="59"/>
-    </row>
-    <row r="47" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="224"/>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="76"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="58"/>
+      <c r="AN46" s="59"/>
+    </row>
+    <row r="47" spans="1:40" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="165"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="99"/>
       <c r="H47" s="76"/>
       <c r="I47" s="76"/>
       <c r="J47" s="76"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="227"/>
-      <c r="M47" s="228"/>
-      <c r="N47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="193"/>
       <c r="O47" s="76"/>
       <c r="P47" s="76"/>
       <c r="Q47" s="76"/>
-      <c r="R47" s="228"/>
-      <c r="S47" s="228"/>
-      <c r="T47" s="227"/>
-      <c r="U47" s="228"/>
-      <c r="V47" s="228"/>
-      <c r="W47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="193"/>
+      <c r="T47" s="193"/>
+      <c r="U47" s="192"/>
+      <c r="V47" s="193"/>
+      <c r="W47" s="193"/>
       <c r="X47" s="76"/>
       <c r="Y47" s="76"/>
       <c r="Z47" s="76"/>
-      <c r="AA47" s="108"/>
-      <c r="AB47" s="64"/>
-      <c r="AC47" s="76"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="64"/>
-      <c r="AG47" s="108"/>
-      <c r="AH47" s="64"/>
-      <c r="AI47" s="76"/>
-      <c r="AJ47" s="64"/>
-      <c r="AK47" s="76"/>
-      <c r="AL47" s="64"/>
-      <c r="AM47" s="101"/>
-    </row>
-    <row r="48" spans="1:39" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="229" t="s">
+      <c r="AA47" s="76"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="76"/>
+      <c r="AE47" s="64"/>
+      <c r="AF47" s="76"/>
+      <c r="AG47" s="64"/>
+      <c r="AH47" s="106"/>
+      <c r="AI47" s="64"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="64"/>
+      <c r="AL47" s="76"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="101"/>
+    </row>
+    <row r="48" spans="1:40" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="105">
+      <c r="B49" s="186">
         <v>13</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="187"/>
+      <c r="D49" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="233"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="233"/>
-      <c r="G49" s="233"/>
-      <c r="H49" s="233"/>
-      <c r="I49" s="233"/>
-      <c r="J49" s="233"/>
-      <c r="K49" s="233"/>
-      <c r="L49" s="233"/>
-      <c r="M49" s="233"/>
-      <c r="N49" s="233"/>
-      <c r="O49" s="233"/>
-      <c r="P49" s="233"/>
-      <c r="Q49" s="233"/>
-      <c r="R49" s="233"/>
-      <c r="S49" s="233"/>
-      <c r="T49" s="233"/>
-      <c r="U49" s="233"/>
-      <c r="V49" s="233"/>
-      <c r="W49" s="233"/>
-      <c r="X49" s="233"/>
-      <c r="Y49" s="233"/>
-      <c r="Z49" s="233"/>
-      <c r="AA49" s="233"/>
-      <c r="AB49" s="233"/>
-      <c r="AC49" s="234"/>
-      <c r="AD49" s="229" t="s">
+      <c r="E49" s="177"/>
+      <c r="F49" s="177"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="177"/>
+      <c r="J49" s="177"/>
+      <c r="K49" s="177"/>
+      <c r="L49" s="177"/>
+      <c r="M49" s="177"/>
+      <c r="N49" s="177"/>
+      <c r="O49" s="177"/>
+      <c r="P49" s="177"/>
+      <c r="Q49" s="177"/>
+      <c r="R49" s="177"/>
+      <c r="S49" s="177"/>
+      <c r="T49" s="177"/>
+      <c r="U49" s="177"/>
+      <c r="V49" s="177"/>
+      <c r="W49" s="177"/>
+      <c r="X49" s="177"/>
+      <c r="Y49" s="177"/>
+      <c r="Z49" s="177"/>
+      <c r="AA49" s="177"/>
+      <c r="AB49" s="177"/>
+      <c r="AC49" s="177"/>
+      <c r="AD49" s="178"/>
+      <c r="AE49" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AE49" s="235">
+      <c r="AF49" s="179">
         <v>34</v>
       </c>
-      <c r="AF49" s="220" t="s">
+      <c r="AG49" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AG49" s="165"/>
-      <c r="AH49" s="165"/>
-      <c r="AI49" s="165"/>
-      <c r="AJ49" s="165"/>
-      <c r="AK49" s="165"/>
-      <c r="AL49" s="165"/>
-      <c r="AM49" s="166"/>
-    </row>
-    <row r="50" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="230"/>
-      <c r="B50" s="104">
+      <c r="AH49" s="181"/>
+      <c r="AI49" s="181"/>
+      <c r="AJ49" s="181"/>
+      <c r="AK49" s="181"/>
+      <c r="AL49" s="181"/>
+      <c r="AM49" s="181"/>
+      <c r="AN49" s="182"/>
+    </row>
+    <row r="50" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="174"/>
+      <c r="B50" s="188">
         <v>16</v>
       </c>
-      <c r="C50" s="240" t="s">
+      <c r="C50" s="189"/>
+      <c r="D50" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
-      <c r="F50" s="241"/>
-      <c r="G50" s="241"/>
-      <c r="H50" s="241"/>
-      <c r="I50" s="241"/>
-      <c r="J50" s="241"/>
-      <c r="K50" s="241"/>
-      <c r="L50" s="241"/>
-      <c r="M50" s="241"/>
-      <c r="N50" s="241"/>
-      <c r="O50" s="241"/>
-      <c r="P50" s="241"/>
-      <c r="Q50" s="241"/>
-      <c r="R50" s="241"/>
-      <c r="S50" s="241"/>
-      <c r="T50" s="241"/>
-      <c r="U50" s="241"/>
-      <c r="V50" s="241"/>
-      <c r="W50" s="241"/>
-      <c r="X50" s="241"/>
-      <c r="Y50" s="241"/>
-      <c r="Z50" s="241"/>
-      <c r="AA50" s="241"/>
-      <c r="AB50" s="241"/>
-      <c r="AC50" s="242"/>
-      <c r="AD50" s="230"/>
-      <c r="AE50" s="236"/>
-      <c r="AF50" s="237"/>
-      <c r="AG50" s="238"/>
-      <c r="AH50" s="238"/>
-      <c r="AI50" s="238"/>
-      <c r="AJ50" s="238"/>
-      <c r="AK50" s="238"/>
-      <c r="AL50" s="238"/>
-      <c r="AM50" s="239"/>
-      <c r="AN50" s="89"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="184"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="184"/>
+      <c r="J50" s="184"/>
+      <c r="K50" s="184"/>
+      <c r="L50" s="184"/>
+      <c r="M50" s="184"/>
+      <c r="N50" s="184"/>
+      <c r="O50" s="184"/>
+      <c r="P50" s="184"/>
+      <c r="Q50" s="184"/>
+      <c r="R50" s="184"/>
+      <c r="S50" s="184"/>
+      <c r="T50" s="184"/>
+      <c r="U50" s="184"/>
+      <c r="V50" s="184"/>
+      <c r="W50" s="184"/>
+      <c r="X50" s="184"/>
+      <c r="Y50" s="184"/>
+      <c r="Z50" s="184"/>
+      <c r="AA50" s="184"/>
+      <c r="AB50" s="184"/>
+      <c r="AC50" s="184"/>
+      <c r="AD50" s="185"/>
+      <c r="AE50" s="174"/>
+      <c r="AF50" s="160"/>
+      <c r="AG50" s="152"/>
+      <c r="AH50" s="153"/>
+      <c r="AI50" s="153"/>
+      <c r="AJ50" s="153"/>
+      <c r="AK50" s="153"/>
+      <c r="AL50" s="153"/>
+      <c r="AM50" s="153"/>
+      <c r="AN50" s="154"/>
       <c r="AO50" s="89"/>
       <c r="AP50" s="89"/>
       <c r="AQ50" s="89"/>
@@ -5835,57 +5940,58 @@
       <c r="BD50" s="89"/>
       <c r="BE50" s="89"/>
       <c r="BF50" s="89"/>
-      <c r="BG50" s="18"/>
-    </row>
-    <row r="51" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="230"/>
-      <c r="B51" s="104">
+      <c r="BG50" s="89"/>
+      <c r="BH50" s="18"/>
+    </row>
+    <row r="51" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="174"/>
+      <c r="B51" s="188">
         <v>19</v>
       </c>
-      <c r="C51" s="240" t="s">
+      <c r="C51" s="189"/>
+      <c r="D51" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="241"/>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241"/>
-      <c r="G51" s="241"/>
-      <c r="H51" s="241"/>
-      <c r="I51" s="241"/>
-      <c r="J51" s="241"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="241"/>
-      <c r="M51" s="241"/>
-      <c r="N51" s="241"/>
-      <c r="O51" s="241"/>
-      <c r="P51" s="241"/>
-      <c r="Q51" s="241"/>
-      <c r="R51" s="241"/>
-      <c r="S51" s="241"/>
-      <c r="T51" s="241"/>
-      <c r="U51" s="241"/>
-      <c r="V51" s="241"/>
-      <c r="W51" s="241"/>
-      <c r="X51" s="241"/>
-      <c r="Y51" s="241"/>
-      <c r="Z51" s="241"/>
-      <c r="AA51" s="241"/>
-      <c r="AB51" s="241"/>
-      <c r="AC51" s="242"/>
-      <c r="AD51" s="230"/>
-      <c r="AE51" s="236">
+      <c r="E51" s="184"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="184"/>
+      <c r="I51" s="184"/>
+      <c r="J51" s="184"/>
+      <c r="K51" s="184"/>
+      <c r="L51" s="184"/>
+      <c r="M51" s="184"/>
+      <c r="N51" s="184"/>
+      <c r="O51" s="184"/>
+      <c r="P51" s="184"/>
+      <c r="Q51" s="184"/>
+      <c r="R51" s="184"/>
+      <c r="S51" s="184"/>
+      <c r="T51" s="184"/>
+      <c r="U51" s="184"/>
+      <c r="V51" s="184"/>
+      <c r="W51" s="184"/>
+      <c r="X51" s="184"/>
+      <c r="Y51" s="184"/>
+      <c r="Z51" s="184"/>
+      <c r="AA51" s="184"/>
+      <c r="AB51" s="184"/>
+      <c r="AC51" s="184"/>
+      <c r="AD51" s="185"/>
+      <c r="AE51" s="174"/>
+      <c r="AF51" s="160">
         <v>35</v>
       </c>
-      <c r="AF51" s="243" t="s">
+      <c r="AG51" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="AG51" s="244"/>
-      <c r="AH51" s="244"/>
-      <c r="AI51" s="244"/>
-      <c r="AJ51" s="244"/>
-      <c r="AK51" s="244"/>
-      <c r="AL51" s="244"/>
-      <c r="AM51" s="245"/>
-      <c r="AN51" s="89"/>
+      <c r="AH51" s="163"/>
+      <c r="AI51" s="163"/>
+      <c r="AJ51" s="163"/>
+      <c r="AK51" s="163"/>
+      <c r="AL51" s="163"/>
+      <c r="AM51" s="163"/>
+      <c r="AN51" s="164"/>
       <c r="AO51" s="89"/>
       <c r="AP51" s="89"/>
       <c r="AQ51" s="89"/>
@@ -5904,53 +6010,54 @@
       <c r="BD51" s="89"/>
       <c r="BE51" s="89"/>
       <c r="BF51" s="89"/>
-      <c r="BG51" s="18"/>
-    </row>
-    <row r="52" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="230"/>
-      <c r="B52" s="104">
+      <c r="BG51" s="89"/>
+      <c r="BH51" s="18"/>
+    </row>
+    <row r="52" spans="1:60" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="174"/>
+      <c r="B52" s="188">
         <v>23</v>
       </c>
-      <c r="C52" s="240" t="s">
+      <c r="C52" s="189"/>
+      <c r="D52" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="241"/>
-      <c r="E52" s="241"/>
-      <c r="F52" s="241"/>
-      <c r="G52" s="241"/>
-      <c r="H52" s="241"/>
-      <c r="I52" s="241"/>
-      <c r="J52" s="241"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="241"/>
-      <c r="M52" s="241"/>
-      <c r="N52" s="241"/>
-      <c r="O52" s="241"/>
-      <c r="P52" s="241"/>
-      <c r="Q52" s="241"/>
-      <c r="R52" s="241"/>
-      <c r="S52" s="241"/>
-      <c r="T52" s="241"/>
-      <c r="U52" s="241"/>
-      <c r="V52" s="241"/>
-      <c r="W52" s="241"/>
-      <c r="X52" s="241"/>
-      <c r="Y52" s="241"/>
-      <c r="Z52" s="241"/>
-      <c r="AA52" s="241"/>
-      <c r="AB52" s="241"/>
-      <c r="AC52" s="242"/>
-      <c r="AD52" s="230"/>
-      <c r="AE52" s="236"/>
-      <c r="AF52" s="237"/>
-      <c r="AG52" s="238"/>
-      <c r="AH52" s="238"/>
-      <c r="AI52" s="238"/>
-      <c r="AJ52" s="238"/>
-      <c r="AK52" s="238"/>
-      <c r="AL52" s="238"/>
-      <c r="AM52" s="239"/>
-      <c r="AN52" s="89"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="184"/>
+      <c r="I52" s="184"/>
+      <c r="J52" s="184"/>
+      <c r="K52" s="184"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="184"/>
+      <c r="O52" s="184"/>
+      <c r="P52" s="184"/>
+      <c r="Q52" s="184"/>
+      <c r="R52" s="184"/>
+      <c r="S52" s="184"/>
+      <c r="T52" s="184"/>
+      <c r="U52" s="184"/>
+      <c r="V52" s="184"/>
+      <c r="W52" s="184"/>
+      <c r="X52" s="184"/>
+      <c r="Y52" s="184"/>
+      <c r="Z52" s="184"/>
+      <c r="AA52" s="184"/>
+      <c r="AB52" s="184"/>
+      <c r="AC52" s="184"/>
+      <c r="AD52" s="185"/>
+      <c r="AE52" s="174"/>
+      <c r="AF52" s="160"/>
+      <c r="AG52" s="152"/>
+      <c r="AH52" s="153"/>
+      <c r="AI52" s="153"/>
+      <c r="AJ52" s="153"/>
+      <c r="AK52" s="153"/>
+      <c r="AL52" s="153"/>
+      <c r="AM52" s="153"/>
+      <c r="AN52" s="154"/>
       <c r="AO52" s="89"/>
       <c r="AP52" s="89"/>
       <c r="AQ52" s="89"/>
@@ -5969,57 +6076,58 @@
       <c r="BD52" s="89"/>
       <c r="BE52" s="89"/>
       <c r="BF52" s="89"/>
-      <c r="BG52" s="18"/>
-    </row>
-    <row r="53" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="230"/>
-      <c r="B53" s="104">
+      <c r="BG52" s="89"/>
+      <c r="BH52" s="18"/>
+    </row>
+    <row r="53" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="174"/>
+      <c r="B53" s="188">
         <v>24</v>
       </c>
-      <c r="C53" s="240" t="s">
+      <c r="C53" s="189"/>
+      <c r="D53" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="241"/>
-      <c r="E53" s="241"/>
-      <c r="F53" s="241"/>
-      <c r="G53" s="241"/>
-      <c r="H53" s="241"/>
-      <c r="I53" s="241"/>
-      <c r="J53" s="241"/>
-      <c r="K53" s="241"/>
-      <c r="L53" s="241"/>
-      <c r="M53" s="241"/>
-      <c r="N53" s="241"/>
-      <c r="O53" s="241"/>
-      <c r="P53" s="241"/>
-      <c r="Q53" s="241"/>
-      <c r="R53" s="241"/>
-      <c r="S53" s="241"/>
-      <c r="T53" s="241"/>
-      <c r="U53" s="241"/>
-      <c r="V53" s="241"/>
-      <c r="W53" s="241"/>
-      <c r="X53" s="241"/>
-      <c r="Y53" s="241"/>
-      <c r="Z53" s="241"/>
-      <c r="AA53" s="241"/>
-      <c r="AB53" s="241"/>
-      <c r="AC53" s="242"/>
-      <c r="AD53" s="230"/>
-      <c r="AE53" s="236">
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="184"/>
+      <c r="I53" s="184"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="184"/>
+      <c r="L53" s="184"/>
+      <c r="M53" s="184"/>
+      <c r="N53" s="184"/>
+      <c r="O53" s="184"/>
+      <c r="P53" s="184"/>
+      <c r="Q53" s="184"/>
+      <c r="R53" s="184"/>
+      <c r="S53" s="184"/>
+      <c r="T53" s="184"/>
+      <c r="U53" s="184"/>
+      <c r="V53" s="184"/>
+      <c r="W53" s="184"/>
+      <c r="X53" s="184"/>
+      <c r="Y53" s="184"/>
+      <c r="Z53" s="184"/>
+      <c r="AA53" s="184"/>
+      <c r="AB53" s="184"/>
+      <c r="AC53" s="184"/>
+      <c r="AD53" s="185"/>
+      <c r="AE53" s="174"/>
+      <c r="AF53" s="160">
         <v>36</v>
       </c>
-      <c r="AF53" s="222" t="s">
+      <c r="AG53" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="AG53" s="168"/>
-      <c r="AH53" s="168"/>
-      <c r="AI53" s="168"/>
-      <c r="AJ53" s="168"/>
-      <c r="AK53" s="168"/>
-      <c r="AL53" s="168"/>
-      <c r="AM53" s="169"/>
-      <c r="AN53" s="85"/>
+      <c r="AH53" s="150"/>
+      <c r="AI53" s="150"/>
+      <c r="AJ53" s="150"/>
+      <c r="AK53" s="150"/>
+      <c r="AL53" s="150"/>
+      <c r="AM53" s="150"/>
+      <c r="AN53" s="151"/>
       <c r="AO53" s="85"/>
       <c r="AP53" s="85"/>
       <c r="AQ53" s="85"/>
@@ -6038,345 +6146,358 @@
       <c r="BD53" s="85"/>
       <c r="BE53" s="85"/>
       <c r="BF53" s="85"/>
-      <c r="BG53" s="18"/>
-    </row>
-    <row r="54" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="230"/>
-      <c r="B54" s="104">
+      <c r="BG53" s="85"/>
+      <c r="BH53" s="18"/>
+    </row>
+    <row r="54" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="174"/>
+      <c r="B54" s="188">
         <v>50</v>
       </c>
-      <c r="C54" s="246" t="s">
+      <c r="C54" s="189"/>
+      <c r="D54" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="247"/>
-      <c r="E54" s="248"/>
-      <c r="F54" s="248"/>
-      <c r="G54" s="248"/>
-      <c r="H54" s="248"/>
-      <c r="I54" s="248"/>
-      <c r="J54" s="248"/>
-      <c r="K54" s="248"/>
-      <c r="L54" s="248"/>
-      <c r="M54" s="248"/>
-      <c r="N54" s="248"/>
-      <c r="O54" s="248"/>
-      <c r="P54" s="248"/>
-      <c r="Q54" s="248"/>
-      <c r="R54" s="248"/>
-      <c r="S54" s="248"/>
-      <c r="T54" s="248"/>
-      <c r="U54" s="248"/>
-      <c r="V54" s="248"/>
-      <c r="W54" s="248"/>
-      <c r="X54" s="248"/>
-      <c r="Y54" s="248"/>
-      <c r="Z54" s="248"/>
-      <c r="AA54" s="248"/>
-      <c r="AB54" s="249"/>
-      <c r="AC54" s="250"/>
-      <c r="AD54" s="230"/>
-      <c r="AE54" s="236"/>
-      <c r="AF54" s="237"/>
-      <c r="AG54" s="238"/>
-      <c r="AH54" s="238"/>
-      <c r="AI54" s="238"/>
-      <c r="AJ54" s="238"/>
-      <c r="AK54" s="238"/>
-      <c r="AL54" s="238"/>
-      <c r="AM54" s="239"/>
-    </row>
-    <row r="55" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="230"/>
-      <c r="B55" s="104">
+      <c r="E54" s="156"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="157"/>
+      <c r="U54" s="157"/>
+      <c r="V54" s="157"/>
+      <c r="W54" s="157"/>
+      <c r="X54" s="157"/>
+      <c r="Y54" s="157"/>
+      <c r="Z54" s="157"/>
+      <c r="AA54" s="157"/>
+      <c r="AB54" s="157"/>
+      <c r="AC54" s="158"/>
+      <c r="AD54" s="159"/>
+      <c r="AE54" s="174"/>
+      <c r="AF54" s="160"/>
+      <c r="AG54" s="152"/>
+      <c r="AH54" s="153"/>
+      <c r="AI54" s="153"/>
+      <c r="AJ54" s="153"/>
+      <c r="AK54" s="153"/>
+      <c r="AL54" s="153"/>
+      <c r="AM54" s="153"/>
+      <c r="AN54" s="154"/>
+    </row>
+    <row r="55" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="174"/>
+      <c r="B55" s="188">
         <v>51</v>
       </c>
-      <c r="C55" s="246" t="s">
+      <c r="C55" s="189"/>
+      <c r="D55" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="247"/>
-      <c r="E55" s="248"/>
-      <c r="F55" s="248"/>
-      <c r="G55" s="248"/>
-      <c r="H55" s="248"/>
-      <c r="I55" s="248"/>
-      <c r="J55" s="248"/>
-      <c r="K55" s="248"/>
-      <c r="L55" s="248"/>
-      <c r="M55" s="248"/>
-      <c r="N55" s="248"/>
-      <c r="O55" s="248"/>
-      <c r="P55" s="248"/>
-      <c r="Q55" s="248"/>
-      <c r="R55" s="248"/>
-      <c r="S55" s="248"/>
-      <c r="T55" s="248"/>
-      <c r="U55" s="248"/>
-      <c r="V55" s="248"/>
-      <c r="W55" s="248"/>
-      <c r="X55" s="248"/>
-      <c r="Y55" s="248"/>
-      <c r="Z55" s="248"/>
-      <c r="AA55" s="248"/>
-      <c r="AB55" s="249"/>
-      <c r="AC55" s="250"/>
-      <c r="AD55" s="230"/>
-      <c r="AE55" s="236">
+      <c r="E55" s="156"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="157"/>
+      <c r="K55" s="157"/>
+      <c r="L55" s="157"/>
+      <c r="M55" s="157"/>
+      <c r="N55" s="157"/>
+      <c r="O55" s="157"/>
+      <c r="P55" s="157"/>
+      <c r="Q55" s="157"/>
+      <c r="R55" s="157"/>
+      <c r="S55" s="157"/>
+      <c r="T55" s="157"/>
+      <c r="U55" s="157"/>
+      <c r="V55" s="157"/>
+      <c r="W55" s="157"/>
+      <c r="X55" s="157"/>
+      <c r="Y55" s="157"/>
+      <c r="Z55" s="157"/>
+      <c r="AA55" s="157"/>
+      <c r="AB55" s="157"/>
+      <c r="AC55" s="158"/>
+      <c r="AD55" s="159"/>
+      <c r="AE55" s="174"/>
+      <c r="AF55" s="160">
         <v>37</v>
       </c>
-      <c r="AF55" s="243" t="s">
+      <c r="AG55" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="AG55" s="244"/>
-      <c r="AH55" s="244"/>
-      <c r="AI55" s="244"/>
-      <c r="AJ55" s="244"/>
-      <c r="AK55" s="244"/>
-      <c r="AL55" s="244"/>
-      <c r="AM55" s="245"/>
-    </row>
-    <row r="56" spans="1:59" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="231"/>
-      <c r="B56" s="92">
+      <c r="AH55" s="163"/>
+      <c r="AI55" s="163"/>
+      <c r="AJ55" s="163"/>
+      <c r="AK55" s="163"/>
+      <c r="AL55" s="163"/>
+      <c r="AM55" s="163"/>
+      <c r="AN55" s="164"/>
+    </row>
+    <row r="56" spans="1:60" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="175"/>
+      <c r="B56" s="228">
         <v>52</v>
       </c>
-      <c r="C56" s="253" t="s">
+      <c r="C56" s="229"/>
+      <c r="D56" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="254"/>
-      <c r="E56" s="255"/>
-      <c r="F56" s="255"/>
-      <c r="G56" s="255"/>
-      <c r="H56" s="255"/>
-      <c r="I56" s="255"/>
-      <c r="J56" s="255"/>
-      <c r="K56" s="255"/>
-      <c r="L56" s="255"/>
-      <c r="M56" s="255"/>
-      <c r="N56" s="255"/>
-      <c r="O56" s="255"/>
-      <c r="P56" s="255"/>
-      <c r="Q56" s="255"/>
-      <c r="R56" s="255"/>
-      <c r="S56" s="255"/>
-      <c r="T56" s="255"/>
-      <c r="U56" s="255"/>
-      <c r="V56" s="255"/>
-      <c r="W56" s="255"/>
-      <c r="X56" s="255"/>
-      <c r="Y56" s="255"/>
-      <c r="Z56" s="255"/>
-      <c r="AA56" s="255"/>
-      <c r="AB56" s="256"/>
-      <c r="AC56" s="257"/>
-      <c r="AD56" s="231"/>
-      <c r="AE56" s="251"/>
-      <c r="AF56" s="224"/>
-      <c r="AG56" s="225"/>
-      <c r="AH56" s="225"/>
-      <c r="AI56" s="225"/>
-      <c r="AJ56" s="225"/>
-      <c r="AK56" s="225"/>
-      <c r="AL56" s="225"/>
-      <c r="AM56" s="252"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="170"/>
+      <c r="O56" s="170"/>
+      <c r="P56" s="170"/>
+      <c r="Q56" s="170"/>
+      <c r="R56" s="170"/>
+      <c r="S56" s="170"/>
+      <c r="T56" s="170"/>
+      <c r="U56" s="170"/>
+      <c r="V56" s="170"/>
+      <c r="W56" s="170"/>
+      <c r="X56" s="170"/>
+      <c r="Y56" s="170"/>
+      <c r="Z56" s="170"/>
+      <c r="AA56" s="170"/>
+      <c r="AB56" s="170"/>
+      <c r="AC56" s="171"/>
+      <c r="AD56" s="172"/>
+      <c r="AE56" s="175"/>
+      <c r="AF56" s="161"/>
+      <c r="AG56" s="165"/>
+      <c r="AH56" s="166"/>
+      <c r="AI56" s="166"/>
+      <c r="AJ56" s="166"/>
+      <c r="AK56" s="166"/>
+      <c r="AL56" s="166"/>
+      <c r="AM56" s="166"/>
+      <c r="AN56" s="167"/>
     </row>
   </sheetData>
-  <sheetProtection password="84CA" sheet="1" selectLockedCells="1"/>
-  <mergeCells count="195">
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="M4:N6"/>
-    <mergeCell ref="O4:P6"/>
-    <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="R17:S18"/>
+  <sheetProtection password="84CA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="204">
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="AI10:AI16"/>
+    <mergeCell ref="AJ10:AJ16"/>
+    <mergeCell ref="U10:W16"/>
+    <mergeCell ref="X10:X16"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AC5:AN9"/>
+    <mergeCell ref="A1:E9"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="AC1:AN4"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="Y10:Y16"/>
+    <mergeCell ref="Z10:Z16"/>
+    <mergeCell ref="AK10:AK16"/>
+    <mergeCell ref="AL10:AL16"/>
+    <mergeCell ref="AM10:AM16"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C53:AC53"/>
-    <mergeCell ref="AE53:AE54"/>
-    <mergeCell ref="AF53:AM54"/>
-    <mergeCell ref="C54:AC54"/>
-    <mergeCell ref="C55:AC55"/>
-    <mergeCell ref="AE55:AE56"/>
-    <mergeCell ref="AF55:AM56"/>
-    <mergeCell ref="C56:AC56"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="C49:AC49"/>
-    <mergeCell ref="AD49:AD56"/>
-    <mergeCell ref="AE49:AE50"/>
-    <mergeCell ref="AF49:AM50"/>
-    <mergeCell ref="C50:AC50"/>
-    <mergeCell ref="C51:AC51"/>
-    <mergeCell ref="AE51:AE52"/>
-    <mergeCell ref="AF51:AM52"/>
-    <mergeCell ref="C52:AC52"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="A43:D47"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="AM17:AM18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="L10:L16"/>
+    <mergeCell ref="AA10:AA16"/>
+    <mergeCell ref="AC10:AC16"/>
+    <mergeCell ref="AD10:AD16"/>
+    <mergeCell ref="AE10:AE16"/>
+    <mergeCell ref="AF10:AF16"/>
+    <mergeCell ref="AG10:AG16"/>
+    <mergeCell ref="AN17:AN18"/>
     <mergeCell ref="A19:A33"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="AG17:AG18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="AH17:AH18"/>
     <mergeCell ref="AI17:AI18"/>
     <mergeCell ref="AJ17:AJ18"/>
     <mergeCell ref="AK17:AK18"/>
     <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AM17:AM18"/>
     <mergeCell ref="AB17:AB18"/>
     <mergeCell ref="AC17:AC18"/>
     <mergeCell ref="AD17:AD18"/>
     <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="T17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="AN10:AN16"/>
+    <mergeCell ref="AH10:AH16"/>
+    <mergeCell ref="AB10:AB16"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="A43:E47"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="D53:AD53"/>
+    <mergeCell ref="AF53:AF54"/>
+    <mergeCell ref="AG53:AN54"/>
+    <mergeCell ref="D54:AD54"/>
+    <mergeCell ref="D55:AD55"/>
+    <mergeCell ref="AF55:AF56"/>
+    <mergeCell ref="AG55:AN56"/>
+    <mergeCell ref="D56:AD56"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="D49:AD49"/>
+    <mergeCell ref="AE49:AE56"/>
+    <mergeCell ref="AF49:AF50"/>
+    <mergeCell ref="AG49:AN50"/>
+    <mergeCell ref="D50:AD50"/>
+    <mergeCell ref="D51:AD51"/>
+    <mergeCell ref="AF51:AF52"/>
+    <mergeCell ref="AG51:AN52"/>
+    <mergeCell ref="D52:AD52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="N4:O6"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="R4:S6"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="AH10:AH16"/>
-    <mergeCell ref="AI10:AI16"/>
-    <mergeCell ref="T10:V16"/>
-    <mergeCell ref="W10:W16"/>
-    <mergeCell ref="X10:X16"/>
-    <mergeCell ref="Y10:Y16"/>
-    <mergeCell ref="AJ10:AJ16"/>
-    <mergeCell ref="AK10:AK16"/>
-    <mergeCell ref="AL10:AL16"/>
-    <mergeCell ref="AM10:AM16"/>
-    <mergeCell ref="AB10:AB16"/>
-    <mergeCell ref="AC10:AC16"/>
-    <mergeCell ref="AD10:AD16"/>
-    <mergeCell ref="AE10:AE16"/>
-    <mergeCell ref="AF10:AF16"/>
-    <mergeCell ref="AG10:AG16"/>
-    <mergeCell ref="AA10:AA16"/>
-    <mergeCell ref="L10:M16"/>
-    <mergeCell ref="N10:N16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="K10:K16"/>
+    <mergeCell ref="M10:N16"/>
     <mergeCell ref="O10:O16"/>
     <mergeCell ref="P10:P16"/>
     <mergeCell ref="Q10:Q16"/>
-    <mergeCell ref="R10:S16"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="H10:H16"/>
-    <mergeCell ref="I10:I16"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="K10:K16"/>
-    <mergeCell ref="Z10:Z16"/>
-    <mergeCell ref="AB5:AM9"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AM4"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="F3:J4"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="R10:R16"/>
+    <mergeCell ref="S10:T16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -6419,76 +6540,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="148" t="s">
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="273" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="347" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="274"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="275"/>
+      <c r="M1" s="348"/>
+      <c r="N1" s="348"/>
+      <c r="O1" s="348"/>
+      <c r="P1" s="348"/>
+      <c r="Q1" s="348"/>
+      <c r="R1" s="348"/>
+      <c r="S1" s="349"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="162" t="s">
+      <c r="U1" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="164" t="s">
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="246"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="248" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="166"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="181"/>
+      <c r="AK1" s="181"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="182"/>
     </row>
     <row r="2" spans="1:39" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="271"/>
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="343"/>
+      <c r="M2" s="344"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="344"/>
+      <c r="P2" s="344"/>
+      <c r="Q2" s="344"/>
+      <c r="R2" s="344"/>
+      <c r="S2" s="345"/>
       <c r="T2" s="7"/>
       <c r="U2" s="83"/>
       <c r="V2" s="83"/>
@@ -6497,30 +6618,30 @@
       <c r="Y2" s="83"/>
       <c r="Z2" s="83"/>
       <c r="AA2" s="84"/>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="169"/>
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
     </row>
     <row r="3" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="241"/>
       <c r="E3" s="70"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
       <c r="K3" s="71"/>
       <c r="L3" s="72"/>
       <c r="M3" s="73"/>
@@ -6538,67 +6659,67 @@
       <c r="Y3" s="75"/>
       <c r="Z3" s="75"/>
       <c r="AA3" s="86"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="169"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="151"/>
     </row>
     <row r="4" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="272"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="346"/>
+      <c r="Q4" s="346"/>
+      <c r="R4" s="346"/>
       <c r="S4" s="11"/>
       <c r="T4" s="69"/>
       <c r="U4" s="5"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="144" t="s">
+      <c r="W4" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
+      <c r="X4" s="251"/>
+      <c r="Y4" s="251"/>
+      <c r="Z4" s="251"/>
       <c r="AA4" s="86"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="168"/>
-      <c r="AH4" s="168"/>
-      <c r="AI4" s="168"/>
-      <c r="AJ4" s="168"/>
-      <c r="AK4" s="168"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="169"/>
+      <c r="AB4" s="249"/>
+      <c r="AC4" s="150"/>
+      <c r="AD4" s="150"/>
+      <c r="AE4" s="150"/>
+      <c r="AF4" s="150"/>
+      <c r="AG4" s="150"/>
+      <c r="AH4" s="150"/>
+      <c r="AI4" s="150"/>
+      <c r="AJ4" s="150"/>
+      <c r="AK4" s="150"/>
+      <c r="AL4" s="150"/>
+      <c r="AM4" s="151"/>
     </row>
     <row r="5" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6607,12 +6728,12 @@
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="288"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="288"/>
-      <c r="R5" s="288"/>
+      <c r="M5" s="328"/>
+      <c r="N5" s="328"/>
+      <c r="O5" s="329"/>
+      <c r="P5" s="330"/>
+      <c r="Q5" s="328"/>
+      <c r="R5" s="328"/>
       <c r="S5" s="11"/>
       <c r="T5" s="69"/>
       <c r="U5" s="1"/>
@@ -6622,71 +6743,71 @@
       <c r="Y5" s="65"/>
       <c r="Z5" s="65"/>
       <c r="AA5" s="87"/>
-      <c r="AB5" s="148" t="s">
+      <c r="AB5" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="149"/>
-      <c r="AF5" s="149"/>
-      <c r="AG5" s="149"/>
-      <c r="AH5" s="149"/>
-      <c r="AI5" s="149"/>
-      <c r="AJ5" s="149"/>
-      <c r="AK5" s="149"/>
-      <c r="AL5" s="149"/>
-      <c r="AM5" s="150"/>
+      <c r="AC5" s="231"/>
+      <c r="AD5" s="231"/>
+      <c r="AE5" s="231"/>
+      <c r="AF5" s="231"/>
+      <c r="AG5" s="231"/>
+      <c r="AH5" s="231"/>
+      <c r="AI5" s="231"/>
+      <c r="AJ5" s="231"/>
+      <c r="AK5" s="231"/>
+      <c r="AL5" s="231"/>
+      <c r="AM5" s="232"/>
     </row>
     <row r="6" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="141" t="s">
+      <c r="A6" s="239"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="143"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="250"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="279"/>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
+      <c r="M6" s="341"/>
+      <c r="N6" s="341"/>
+      <c r="O6" s="341"/>
+      <c r="P6" s="341"/>
+      <c r="Q6" s="341"/>
+      <c r="R6" s="341"/>
       <c r="S6" s="11"/>
       <c r="T6" s="7"/>
       <c r="U6" s="5"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="144" t="s">
+      <c r="W6" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
-      <c r="AM6" s="151"/>
+      <c r="X6" s="251"/>
+      <c r="Y6" s="251"/>
+      <c r="Z6" s="251"/>
+      <c r="AA6" s="252"/>
+      <c r="AB6" s="233"/>
+      <c r="AC6" s="234"/>
+      <c r="AD6" s="234"/>
+      <c r="AE6" s="234"/>
+      <c r="AF6" s="234"/>
+      <c r="AG6" s="234"/>
+      <c r="AH6" s="234"/>
+      <c r="AI6" s="234"/>
+      <c r="AJ6" s="234"/>
+      <c r="AK6" s="234"/>
+      <c r="AL6" s="234"/>
+      <c r="AM6" s="235"/>
     </row>
     <row r="7" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="157"/>
+      <c r="A7" s="239"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="66"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
@@ -6695,12 +6816,12 @@
       <c r="J7" s="67"/>
       <c r="K7" s="68"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="282"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="282"/>
-      <c r="R7" s="280"/>
+      <c r="M7" s="332"/>
+      <c r="N7" s="342"/>
+      <c r="O7" s="331"/>
+      <c r="P7" s="342"/>
+      <c r="Q7" s="331"/>
+      <c r="R7" s="332"/>
       <c r="S7" s="13"/>
       <c r="T7" s="7"/>
       <c r="U7" s="1"/>
@@ -6710,33 +6831,33 @@
       <c r="Y7" s="65"/>
       <c r="Z7" s="65"/>
       <c r="AA7" s="87"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="142"/>
-      <c r="AJ7" s="142"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="142"/>
-      <c r="AM7" s="151"/>
+      <c r="AB7" s="233"/>
+      <c r="AC7" s="234"/>
+      <c r="AD7" s="234"/>
+      <c r="AE7" s="234"/>
+      <c r="AF7" s="234"/>
+      <c r="AG7" s="234"/>
+      <c r="AH7" s="234"/>
+      <c r="AI7" s="234"/>
+      <c r="AJ7" s="234"/>
+      <c r="AK7" s="234"/>
+      <c r="AL7" s="234"/>
+      <c r="AM7" s="235"/>
     </row>
     <row r="8" spans="1:39" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="141" t="s">
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="250"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
@@ -6748,576 +6869,576 @@
       <c r="T8" s="7"/>
       <c r="U8" s="5"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="144" t="s">
+      <c r="W8" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="142"/>
-      <c r="AI8" s="142"/>
-      <c r="AJ8" s="142"/>
-      <c r="AK8" s="142"/>
-      <c r="AL8" s="142"/>
-      <c r="AM8" s="151"/>
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="233"/>
+      <c r="AC8" s="234"/>
+      <c r="AD8" s="234"/>
+      <c r="AE8" s="234"/>
+      <c r="AF8" s="234"/>
+      <c r="AG8" s="234"/>
+      <c r="AH8" s="234"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="234"/>
+      <c r="AK8" s="234"/>
+      <c r="AL8" s="234"/>
+      <c r="AM8" s="235"/>
     </row>
     <row r="9" spans="1:39" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="172"/>
+      <c r="A9" s="239"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="250"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="254"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="255"/>
       <c r="T9" s="69"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="251"/>
+      <c r="Y9" s="251"/>
+      <c r="Z9" s="251"/>
       <c r="AA9" s="88"/>
-      <c r="AB9" s="276"/>
-      <c r="AC9" s="277"/>
-      <c r="AD9" s="277"/>
-      <c r="AE9" s="277"/>
-      <c r="AF9" s="277"/>
-      <c r="AG9" s="277"/>
-      <c r="AH9" s="277"/>
-      <c r="AI9" s="277"/>
-      <c r="AJ9" s="277"/>
-      <c r="AK9" s="277"/>
-      <c r="AL9" s="277"/>
-      <c r="AM9" s="278"/>
+      <c r="AB9" s="338"/>
+      <c r="AC9" s="339"/>
+      <c r="AD9" s="339"/>
+      <c r="AE9" s="339"/>
+      <c r="AF9" s="339"/>
+      <c r="AG9" s="339"/>
+      <c r="AH9" s="339"/>
+      <c r="AI9" s="339"/>
+      <c r="AJ9" s="339"/>
+      <c r="AK9" s="339"/>
+      <c r="AL9" s="339"/>
+      <c r="AM9" s="340"/>
     </row>
     <row r="10" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="298"/>
-      <c r="B10" s="301" t="s">
+      <c r="A10" s="308"/>
+      <c r="B10" s="311" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="304" t="s">
+      <c r="C10" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="304" t="s">
+      <c r="D10" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="291"/>
-      <c r="F10" s="295" t="s">
+      <c r="E10" s="333"/>
+      <c r="F10" s="323" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
-      <c r="J10" s="296"/>
-      <c r="K10" s="297"/>
-      <c r="L10" s="295" t="s">
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="324"/>
+      <c r="J10" s="324"/>
+      <c r="K10" s="325"/>
+      <c r="L10" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="296"/>
-      <c r="N10" s="296"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="296"/>
-      <c r="Q10" s="296"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="297"/>
-      <c r="T10" s="335"/>
-      <c r="U10" s="336"/>
-      <c r="V10" s="336"/>
-      <c r="W10" s="336"/>
-      <c r="X10" s="336"/>
-      <c r="Y10" s="336"/>
-      <c r="Z10" s="336"/>
-      <c r="AA10" s="336"/>
-      <c r="AB10" s="336"/>
-      <c r="AC10" s="336"/>
-      <c r="AD10" s="336"/>
-      <c r="AE10" s="336"/>
-      <c r="AF10" s="336"/>
-      <c r="AG10" s="336"/>
-      <c r="AH10" s="336"/>
-      <c r="AI10" s="336"/>
-      <c r="AJ10" s="336"/>
-      <c r="AK10" s="336"/>
-      <c r="AL10" s="336"/>
-      <c r="AM10" s="337"/>
+      <c r="M10" s="324"/>
+      <c r="N10" s="324"/>
+      <c r="O10" s="324"/>
+      <c r="P10" s="324"/>
+      <c r="Q10" s="324"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="325"/>
+      <c r="T10" s="276"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="277"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="277"/>
+      <c r="Z10" s="277"/>
+      <c r="AA10" s="277"/>
+      <c r="AB10" s="277"/>
+      <c r="AC10" s="277"/>
+      <c r="AD10" s="277"/>
+      <c r="AE10" s="277"/>
+      <c r="AF10" s="277"/>
+      <c r="AG10" s="277"/>
+      <c r="AH10" s="277"/>
+      <c r="AI10" s="277"/>
+      <c r="AJ10" s="277"/>
+      <c r="AK10" s="277"/>
+      <c r="AL10" s="277"/>
+      <c r="AM10" s="278"/>
     </row>
     <row r="11" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="299"/>
-      <c r="B11" s="302"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="305"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="309">
+      <c r="A11" s="309"/>
+      <c r="B11" s="312"/>
+      <c r="C11" s="315"/>
+      <c r="D11" s="315"/>
+      <c r="E11" s="334"/>
+      <c r="F11" s="273">
         <v>36892</v>
       </c>
-      <c r="G11" s="310"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="309">
+      <c r="G11" s="274"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="274"/>
+      <c r="J11" s="274"/>
+      <c r="K11" s="275"/>
+      <c r="L11" s="273">
         <v>36892</v>
       </c>
-      <c r="M11" s="310"/>
-      <c r="N11" s="310"/>
-      <c r="O11" s="310"/>
-      <c r="P11" s="310"/>
-      <c r="Q11" s="310"/>
-      <c r="R11" s="310"/>
-      <c r="S11" s="311"/>
-      <c r="T11" s="338"/>
-      <c r="U11" s="339"/>
-      <c r="V11" s="339"/>
-      <c r="W11" s="339"/>
-      <c r="X11" s="339"/>
-      <c r="Y11" s="339"/>
-      <c r="Z11" s="339"/>
-      <c r="AA11" s="339"/>
-      <c r="AB11" s="339"/>
-      <c r="AC11" s="339"/>
-      <c r="AD11" s="339"/>
-      <c r="AE11" s="339"/>
-      <c r="AF11" s="339"/>
-      <c r="AG11" s="339"/>
-      <c r="AH11" s="339"/>
-      <c r="AI11" s="339"/>
-      <c r="AJ11" s="339"/>
-      <c r="AK11" s="339"/>
-      <c r="AL11" s="339"/>
-      <c r="AM11" s="340"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="274"/>
+      <c r="P11" s="274"/>
+      <c r="Q11" s="274"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="275"/>
+      <c r="T11" s="279"/>
+      <c r="U11" s="280"/>
+      <c r="V11" s="280"/>
+      <c r="W11" s="280"/>
+      <c r="X11" s="280"/>
+      <c r="Y11" s="280"/>
+      <c r="Z11" s="280"/>
+      <c r="AA11" s="280"/>
+      <c r="AB11" s="280"/>
+      <c r="AC11" s="280"/>
+      <c r="AD11" s="280"/>
+      <c r="AE11" s="280"/>
+      <c r="AF11" s="280"/>
+      <c r="AG11" s="280"/>
+      <c r="AH11" s="280"/>
+      <c r="AI11" s="280"/>
+      <c r="AJ11" s="280"/>
+      <c r="AK11" s="280"/>
+      <c r="AL11" s="280"/>
+      <c r="AM11" s="281"/>
     </row>
     <row r="12" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="299"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="305"/>
-      <c r="D12" s="305"/>
-      <c r="E12" s="292"/>
-      <c r="F12" s="180" t="s">
+      <c r="A12" s="309"/>
+      <c r="B12" s="312"/>
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="334"/>
+      <c r="F12" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="183" t="s">
+      <c r="G12" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="183" t="s">
+      <c r="H12" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="183" t="s">
+      <c r="J12" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="283"/>
-      <c r="L12" s="180" t="s">
+      <c r="K12" s="318"/>
+      <c r="L12" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183" t="s">
+      <c r="M12" s="213"/>
+      <c r="N12" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="183" t="s">
+      <c r="O12" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="183" t="s">
+      <c r="P12" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="183" t="s">
+      <c r="Q12" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="183"/>
-      <c r="S12" s="283"/>
-      <c r="T12" s="338"/>
-      <c r="U12" s="339"/>
-      <c r="V12" s="339"/>
-      <c r="W12" s="339"/>
-      <c r="X12" s="339"/>
-      <c r="Y12" s="339"/>
-      <c r="Z12" s="339"/>
-      <c r="AA12" s="339"/>
-      <c r="AB12" s="339"/>
-      <c r="AC12" s="339"/>
-      <c r="AD12" s="339"/>
-      <c r="AE12" s="339"/>
-      <c r="AF12" s="339"/>
-      <c r="AG12" s="339"/>
-      <c r="AH12" s="339"/>
-      <c r="AI12" s="339"/>
-      <c r="AJ12" s="339"/>
-      <c r="AK12" s="339"/>
-      <c r="AL12" s="339"/>
-      <c r="AM12" s="340"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="318"/>
+      <c r="T12" s="279"/>
+      <c r="U12" s="280"/>
+      <c r="V12" s="280"/>
+      <c r="W12" s="280"/>
+      <c r="X12" s="280"/>
+      <c r="Y12" s="280"/>
+      <c r="Z12" s="280"/>
+      <c r="AA12" s="280"/>
+      <c r="AB12" s="280"/>
+      <c r="AC12" s="280"/>
+      <c r="AD12" s="280"/>
+      <c r="AE12" s="280"/>
+      <c r="AF12" s="280"/>
+      <c r="AG12" s="280"/>
+      <c r="AH12" s="280"/>
+      <c r="AI12" s="280"/>
+      <c r="AJ12" s="280"/>
+      <c r="AK12" s="280"/>
+      <c r="AL12" s="280"/>
+      <c r="AM12" s="281"/>
     </row>
     <row r="13" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="299"/>
-      <c r="B13" s="302"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="292"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="294"/>
-      <c r="M13" s="284"/>
-      <c r="N13" s="284"/>
-      <c r="O13" s="284"/>
-      <c r="P13" s="284"/>
-      <c r="Q13" s="284"/>
-      <c r="R13" s="284"/>
-      <c r="S13" s="285"/>
-      <c r="T13" s="338"/>
-      <c r="U13" s="339"/>
-      <c r="V13" s="339"/>
-      <c r="W13" s="339"/>
-      <c r="X13" s="339"/>
-      <c r="Y13" s="339"/>
-      <c r="Z13" s="339"/>
-      <c r="AA13" s="339"/>
-      <c r="AB13" s="339"/>
-      <c r="AC13" s="339"/>
-      <c r="AD13" s="339"/>
-      <c r="AE13" s="339"/>
-      <c r="AF13" s="339"/>
-      <c r="AG13" s="339"/>
-      <c r="AH13" s="339"/>
-      <c r="AI13" s="339"/>
-      <c r="AJ13" s="339"/>
-      <c r="AK13" s="339"/>
-      <c r="AL13" s="339"/>
-      <c r="AM13" s="340"/>
+      <c r="A13" s="309"/>
+      <c r="B13" s="312"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="334"/>
+      <c r="F13" s="322"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="322"/>
+      <c r="M13" s="317"/>
+      <c r="N13" s="317"/>
+      <c r="O13" s="317"/>
+      <c r="P13" s="317"/>
+      <c r="Q13" s="317"/>
+      <c r="R13" s="317"/>
+      <c r="S13" s="319"/>
+      <c r="T13" s="279"/>
+      <c r="U13" s="280"/>
+      <c r="V13" s="280"/>
+      <c r="W13" s="280"/>
+      <c r="X13" s="280"/>
+      <c r="Y13" s="280"/>
+      <c r="Z13" s="280"/>
+      <c r="AA13" s="280"/>
+      <c r="AB13" s="280"/>
+      <c r="AC13" s="280"/>
+      <c r="AD13" s="280"/>
+      <c r="AE13" s="280"/>
+      <c r="AF13" s="280"/>
+      <c r="AG13" s="280"/>
+      <c r="AH13" s="280"/>
+      <c r="AI13" s="280"/>
+      <c r="AJ13" s="280"/>
+      <c r="AK13" s="280"/>
+      <c r="AL13" s="280"/>
+      <c r="AM13" s="281"/>
     </row>
     <row r="14" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="299"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="305"/>
-      <c r="D14" s="305"/>
-      <c r="E14" s="292"/>
-      <c r="F14" s="294"/>
-      <c r="G14" s="284"/>
-      <c r="H14" s="284"/>
-      <c r="I14" s="284"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="285"/>
-      <c r="L14" s="294"/>
-      <c r="M14" s="284"/>
-      <c r="N14" s="284"/>
-      <c r="O14" s="284"/>
-      <c r="P14" s="284"/>
-      <c r="Q14" s="284"/>
-      <c r="R14" s="284"/>
-      <c r="S14" s="285"/>
-      <c r="T14" s="338"/>
-      <c r="U14" s="339"/>
-      <c r="V14" s="339"/>
-      <c r="W14" s="339"/>
-      <c r="X14" s="339"/>
-      <c r="Y14" s="339"/>
-      <c r="Z14" s="339"/>
-      <c r="AA14" s="339"/>
-      <c r="AB14" s="339"/>
-      <c r="AC14" s="339"/>
-      <c r="AD14" s="339"/>
-      <c r="AE14" s="339"/>
-      <c r="AF14" s="339"/>
-      <c r="AG14" s="339"/>
-      <c r="AH14" s="339"/>
-      <c r="AI14" s="339"/>
-      <c r="AJ14" s="339"/>
-      <c r="AK14" s="339"/>
-      <c r="AL14" s="339"/>
-      <c r="AM14" s="340"/>
+      <c r="A14" s="309"/>
+      <c r="B14" s="312"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="322"/>
+      <c r="G14" s="317"/>
+      <c r="H14" s="317"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="317"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="322"/>
+      <c r="M14" s="317"/>
+      <c r="N14" s="317"/>
+      <c r="O14" s="317"/>
+      <c r="P14" s="317"/>
+      <c r="Q14" s="317"/>
+      <c r="R14" s="317"/>
+      <c r="S14" s="319"/>
+      <c r="T14" s="279"/>
+      <c r="U14" s="280"/>
+      <c r="V14" s="280"/>
+      <c r="W14" s="280"/>
+      <c r="X14" s="280"/>
+      <c r="Y14" s="280"/>
+      <c r="Z14" s="280"/>
+      <c r="AA14" s="280"/>
+      <c r="AB14" s="280"/>
+      <c r="AC14" s="280"/>
+      <c r="AD14" s="280"/>
+      <c r="AE14" s="280"/>
+      <c r="AF14" s="280"/>
+      <c r="AG14" s="280"/>
+      <c r="AH14" s="280"/>
+      <c r="AI14" s="280"/>
+      <c r="AJ14" s="280"/>
+      <c r="AK14" s="280"/>
+      <c r="AL14" s="280"/>
+      <c r="AM14" s="281"/>
     </row>
     <row r="15" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="299"/>
-      <c r="B15" s="302"/>
-      <c r="C15" s="305"/>
-      <c r="D15" s="305"/>
-      <c r="E15" s="292"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="284"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="285"/>
-      <c r="L15" s="294"/>
-      <c r="M15" s="284"/>
-      <c r="N15" s="284"/>
-      <c r="O15" s="284"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="284"/>
-      <c r="R15" s="284"/>
-      <c r="S15" s="285"/>
-      <c r="T15" s="338"/>
-      <c r="U15" s="339"/>
-      <c r="V15" s="339"/>
-      <c r="W15" s="339"/>
-      <c r="X15" s="339"/>
-      <c r="Y15" s="339"/>
-      <c r="Z15" s="339"/>
-      <c r="AA15" s="339"/>
-      <c r="AB15" s="339"/>
-      <c r="AC15" s="339"/>
-      <c r="AD15" s="339"/>
-      <c r="AE15" s="339"/>
-      <c r="AF15" s="339"/>
-      <c r="AG15" s="339"/>
-      <c r="AH15" s="339"/>
-      <c r="AI15" s="339"/>
-      <c r="AJ15" s="339"/>
-      <c r="AK15" s="339"/>
-      <c r="AL15" s="339"/>
-      <c r="AM15" s="340"/>
+      <c r="A15" s="309"/>
+      <c r="B15" s="312"/>
+      <c r="C15" s="315"/>
+      <c r="D15" s="315"/>
+      <c r="E15" s="334"/>
+      <c r="F15" s="322"/>
+      <c r="G15" s="317"/>
+      <c r="H15" s="317"/>
+      <c r="I15" s="317"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="322"/>
+      <c r="M15" s="317"/>
+      <c r="N15" s="317"/>
+      <c r="O15" s="317"/>
+      <c r="P15" s="317"/>
+      <c r="Q15" s="317"/>
+      <c r="R15" s="317"/>
+      <c r="S15" s="319"/>
+      <c r="T15" s="279"/>
+      <c r="U15" s="280"/>
+      <c r="V15" s="280"/>
+      <c r="W15" s="280"/>
+      <c r="X15" s="280"/>
+      <c r="Y15" s="280"/>
+      <c r="Z15" s="280"/>
+      <c r="AA15" s="280"/>
+      <c r="AB15" s="280"/>
+      <c r="AC15" s="280"/>
+      <c r="AD15" s="280"/>
+      <c r="AE15" s="280"/>
+      <c r="AF15" s="280"/>
+      <c r="AG15" s="280"/>
+      <c r="AH15" s="280"/>
+      <c r="AI15" s="280"/>
+      <c r="AJ15" s="280"/>
+      <c r="AK15" s="280"/>
+      <c r="AL15" s="280"/>
+      <c r="AM15" s="281"/>
     </row>
     <row r="16" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="299"/>
-      <c r="B16" s="302"/>
-      <c r="C16" s="305"/>
-      <c r="D16" s="305"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="294"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="284"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="285"/>
-      <c r="L16" s="294"/>
-      <c r="M16" s="284"/>
-      <c r="N16" s="284"/>
-      <c r="O16" s="284"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="284"/>
-      <c r="R16" s="284"/>
-      <c r="S16" s="285"/>
-      <c r="T16" s="338"/>
-      <c r="U16" s="339"/>
-      <c r="V16" s="339"/>
-      <c r="W16" s="339"/>
-      <c r="X16" s="339"/>
-      <c r="Y16" s="339"/>
-      <c r="Z16" s="339"/>
-      <c r="AA16" s="339"/>
-      <c r="AB16" s="339"/>
-      <c r="AC16" s="339"/>
-      <c r="AD16" s="339"/>
-      <c r="AE16" s="339"/>
-      <c r="AF16" s="339"/>
-      <c r="AG16" s="339"/>
-      <c r="AH16" s="339"/>
-      <c r="AI16" s="339"/>
-      <c r="AJ16" s="339"/>
-      <c r="AK16" s="339"/>
-      <c r="AL16" s="339"/>
-      <c r="AM16" s="340"/>
+      <c r="A16" s="309"/>
+      <c r="B16" s="312"/>
+      <c r="C16" s="315"/>
+      <c r="D16" s="315"/>
+      <c r="E16" s="334"/>
+      <c r="F16" s="322"/>
+      <c r="G16" s="317"/>
+      <c r="H16" s="317"/>
+      <c r="I16" s="317"/>
+      <c r="J16" s="317"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="322"/>
+      <c r="M16" s="317"/>
+      <c r="N16" s="317"/>
+      <c r="O16" s="317"/>
+      <c r="P16" s="317"/>
+      <c r="Q16" s="317"/>
+      <c r="R16" s="317"/>
+      <c r="S16" s="319"/>
+      <c r="T16" s="279"/>
+      <c r="U16" s="280"/>
+      <c r="V16" s="280"/>
+      <c r="W16" s="280"/>
+      <c r="X16" s="280"/>
+      <c r="Y16" s="280"/>
+      <c r="Z16" s="280"/>
+      <c r="AA16" s="280"/>
+      <c r="AB16" s="280"/>
+      <c r="AC16" s="280"/>
+      <c r="AD16" s="280"/>
+      <c r="AE16" s="280"/>
+      <c r="AF16" s="280"/>
+      <c r="AG16" s="280"/>
+      <c r="AH16" s="280"/>
+      <c r="AI16" s="280"/>
+      <c r="AJ16" s="280"/>
+      <c r="AK16" s="280"/>
+      <c r="AL16" s="280"/>
+      <c r="AM16" s="281"/>
     </row>
     <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="299"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="305"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="294"/>
-      <c r="G17" s="284"/>
-      <c r="H17" s="284"/>
-      <c r="I17" s="284"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="294"/>
-      <c r="M17" s="284"/>
-      <c r="N17" s="284"/>
-      <c r="O17" s="284"/>
-      <c r="P17" s="284"/>
-      <c r="Q17" s="284"/>
-      <c r="R17" s="284"/>
-      <c r="S17" s="285"/>
-      <c r="T17" s="338"/>
-      <c r="U17" s="339"/>
-      <c r="V17" s="339"/>
-      <c r="W17" s="339"/>
-      <c r="X17" s="339"/>
-      <c r="Y17" s="339"/>
-      <c r="Z17" s="339"/>
-      <c r="AA17" s="339"/>
-      <c r="AB17" s="339"/>
-      <c r="AC17" s="339"/>
-      <c r="AD17" s="339"/>
-      <c r="AE17" s="339"/>
-      <c r="AF17" s="339"/>
-      <c r="AG17" s="339"/>
-      <c r="AH17" s="339"/>
-      <c r="AI17" s="339"/>
-      <c r="AJ17" s="339"/>
-      <c r="AK17" s="339"/>
-      <c r="AL17" s="339"/>
-      <c r="AM17" s="340"/>
+      <c r="A17" s="309"/>
+      <c r="B17" s="312"/>
+      <c r="C17" s="315"/>
+      <c r="D17" s="315"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="322"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="317"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="317"/>
+      <c r="K17" s="319"/>
+      <c r="L17" s="322"/>
+      <c r="M17" s="317"/>
+      <c r="N17" s="317"/>
+      <c r="O17" s="317"/>
+      <c r="P17" s="317"/>
+      <c r="Q17" s="317"/>
+      <c r="R17" s="317"/>
+      <c r="S17" s="319"/>
+      <c r="T17" s="279"/>
+      <c r="U17" s="280"/>
+      <c r="V17" s="280"/>
+      <c r="W17" s="280"/>
+      <c r="X17" s="280"/>
+      <c r="Y17" s="280"/>
+      <c r="Z17" s="280"/>
+      <c r="AA17" s="280"/>
+      <c r="AB17" s="280"/>
+      <c r="AC17" s="280"/>
+      <c r="AD17" s="280"/>
+      <c r="AE17" s="280"/>
+      <c r="AF17" s="280"/>
+      <c r="AG17" s="280"/>
+      <c r="AH17" s="280"/>
+      <c r="AI17" s="280"/>
+      <c r="AJ17" s="280"/>
+      <c r="AK17" s="280"/>
+      <c r="AL17" s="280"/>
+      <c r="AM17" s="281"/>
     </row>
     <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="299"/>
-      <c r="B18" s="302"/>
-      <c r="C18" s="305"/>
-      <c r="D18" s="305"/>
-      <c r="E18" s="293"/>
-      <c r="F18" s="294"/>
-      <c r="G18" s="284"/>
-      <c r="H18" s="284"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="284"/>
-      <c r="N18" s="284"/>
-      <c r="O18" s="284"/>
-      <c r="P18" s="284"/>
-      <c r="Q18" s="284"/>
-      <c r="R18" s="284"/>
-      <c r="S18" s="285"/>
-      <c r="T18" s="338"/>
-      <c r="U18" s="339"/>
-      <c r="V18" s="339"/>
-      <c r="W18" s="339"/>
-      <c r="X18" s="339"/>
-      <c r="Y18" s="339"/>
-      <c r="Z18" s="339"/>
-      <c r="AA18" s="339"/>
-      <c r="AB18" s="339"/>
-      <c r="AC18" s="339"/>
-      <c r="AD18" s="339"/>
-      <c r="AE18" s="339"/>
-      <c r="AF18" s="339"/>
-      <c r="AG18" s="339"/>
-      <c r="AH18" s="339"/>
-      <c r="AI18" s="339"/>
-      <c r="AJ18" s="339"/>
-      <c r="AK18" s="339"/>
-      <c r="AL18" s="339"/>
-      <c r="AM18" s="340"/>
+      <c r="A18" s="309"/>
+      <c r="B18" s="312"/>
+      <c r="C18" s="315"/>
+      <c r="D18" s="315"/>
+      <c r="E18" s="335"/>
+      <c r="F18" s="322"/>
+      <c r="G18" s="317"/>
+      <c r="H18" s="317"/>
+      <c r="I18" s="317"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="322"/>
+      <c r="M18" s="317"/>
+      <c r="N18" s="317"/>
+      <c r="O18" s="317"/>
+      <c r="P18" s="317"/>
+      <c r="Q18" s="317"/>
+      <c r="R18" s="317"/>
+      <c r="S18" s="319"/>
+      <c r="T18" s="279"/>
+      <c r="U18" s="280"/>
+      <c r="V18" s="280"/>
+      <c r="W18" s="280"/>
+      <c r="X18" s="280"/>
+      <c r="Y18" s="280"/>
+      <c r="Z18" s="280"/>
+      <c r="AA18" s="280"/>
+      <c r="AB18" s="280"/>
+      <c r="AC18" s="280"/>
+      <c r="AD18" s="280"/>
+      <c r="AE18" s="280"/>
+      <c r="AF18" s="280"/>
+      <c r="AG18" s="280"/>
+      <c r="AH18" s="280"/>
+      <c r="AI18" s="280"/>
+      <c r="AJ18" s="280"/>
+      <c r="AK18" s="280"/>
+      <c r="AL18" s="280"/>
+      <c r="AM18" s="281"/>
     </row>
     <row r="19" spans="1:39" ht="13.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="299"/>
-      <c r="B19" s="302"/>
-      <c r="C19" s="305"/>
-      <c r="D19" s="305"/>
-      <c r="E19" s="286" t="s">
+      <c r="A19" s="309"/>
+      <c r="B19" s="312"/>
+      <c r="C19" s="315"/>
+      <c r="D19" s="315"/>
+      <c r="E19" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="314">
+      <c r="F19" s="336">
         <v>528</v>
       </c>
-      <c r="G19" s="316">
+      <c r="G19" s="304">
         <v>3219</v>
       </c>
-      <c r="H19" s="316">
+      <c r="H19" s="304">
         <v>3516</v>
       </c>
-      <c r="I19" s="318">
+      <c r="I19" s="306">
         <v>2797</v>
       </c>
-      <c r="J19" s="312">
+      <c r="J19" s="295">
         <v>3872</v>
       </c>
-      <c r="K19" s="307"/>
-      <c r="L19" s="326">
+      <c r="K19" s="320"/>
+      <c r="L19" s="302">
         <v>528</v>
       </c>
-      <c r="M19" s="312"/>
-      <c r="N19" s="316">
+      <c r="M19" s="295"/>
+      <c r="N19" s="304">
         <v>3219</v>
       </c>
-      <c r="O19" s="316">
+      <c r="O19" s="304">
         <v>3516</v>
       </c>
-      <c r="P19" s="318">
+      <c r="P19" s="306">
         <v>2797</v>
       </c>
-      <c r="Q19" s="312">
+      <c r="Q19" s="295">
         <v>3872</v>
       </c>
-      <c r="R19" s="312"/>
-      <c r="S19" s="320"/>
-      <c r="T19" s="338"/>
-      <c r="U19" s="339"/>
-      <c r="V19" s="339"/>
-      <c r="W19" s="339"/>
-      <c r="X19" s="339"/>
-      <c r="Y19" s="339"/>
-      <c r="Z19" s="339"/>
-      <c r="AA19" s="339"/>
-      <c r="AB19" s="339"/>
-      <c r="AC19" s="339"/>
-      <c r="AD19" s="339"/>
-      <c r="AE19" s="339"/>
-      <c r="AF19" s="339"/>
-      <c r="AG19" s="339"/>
-      <c r="AH19" s="339"/>
-      <c r="AI19" s="339"/>
-      <c r="AJ19" s="339"/>
-      <c r="AK19" s="339"/>
-      <c r="AL19" s="339"/>
-      <c r="AM19" s="340"/>
+      <c r="R19" s="295"/>
+      <c r="S19" s="296"/>
+      <c r="T19" s="279"/>
+      <c r="U19" s="280"/>
+      <c r="V19" s="280"/>
+      <c r="W19" s="280"/>
+      <c r="X19" s="280"/>
+      <c r="Y19" s="280"/>
+      <c r="Z19" s="280"/>
+      <c r="AA19" s="280"/>
+      <c r="AB19" s="280"/>
+      <c r="AC19" s="280"/>
+      <c r="AD19" s="280"/>
+      <c r="AE19" s="280"/>
+      <c r="AF19" s="280"/>
+      <c r="AG19" s="280"/>
+      <c r="AH19" s="280"/>
+      <c r="AI19" s="280"/>
+      <c r="AJ19" s="280"/>
+      <c r="AK19" s="280"/>
+      <c r="AL19" s="280"/>
+      <c r="AM19" s="281"/>
     </row>
     <row r="20" spans="1:39" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="300"/>
-      <c r="B20" s="303"/>
-      <c r="C20" s="306"/>
-      <c r="D20" s="306"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="317"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="308"/>
-      <c r="L20" s="327"/>
-      <c r="M20" s="313"/>
-      <c r="N20" s="317"/>
-      <c r="O20" s="317"/>
-      <c r="P20" s="319"/>
-      <c r="Q20" s="313"/>
-      <c r="R20" s="313"/>
-      <c r="S20" s="321"/>
-      <c r="T20" s="341"/>
-      <c r="U20" s="342"/>
-      <c r="V20" s="342"/>
-      <c r="W20" s="342"/>
-      <c r="X20" s="342"/>
-      <c r="Y20" s="342"/>
-      <c r="Z20" s="342"/>
-      <c r="AA20" s="342"/>
-      <c r="AB20" s="342"/>
-      <c r="AC20" s="342"/>
-      <c r="AD20" s="342"/>
-      <c r="AE20" s="342"/>
-      <c r="AF20" s="342"/>
-      <c r="AG20" s="342"/>
-      <c r="AH20" s="342"/>
-      <c r="AI20" s="342"/>
-      <c r="AJ20" s="342"/>
-      <c r="AK20" s="342"/>
-      <c r="AL20" s="342"/>
-      <c r="AM20" s="343"/>
+      <c r="A20" s="310"/>
+      <c r="B20" s="313"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="316"/>
+      <c r="E20" s="327"/>
+      <c r="F20" s="337"/>
+      <c r="G20" s="305"/>
+      <c r="H20" s="305"/>
+      <c r="I20" s="307"/>
+      <c r="J20" s="297"/>
+      <c r="K20" s="321"/>
+      <c r="L20" s="303"/>
+      <c r="M20" s="297"/>
+      <c r="N20" s="305"/>
+      <c r="O20" s="305"/>
+      <c r="P20" s="307"/>
+      <c r="Q20" s="297"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="282"/>
+      <c r="U20" s="283"/>
+      <c r="V20" s="283"/>
+      <c r="W20" s="283"/>
+      <c r="X20" s="283"/>
+      <c r="Y20" s="283"/>
+      <c r="Z20" s="283"/>
+      <c r="AA20" s="283"/>
+      <c r="AB20" s="283"/>
+      <c r="AC20" s="283"/>
+      <c r="AD20" s="283"/>
+      <c r="AE20" s="283"/>
+      <c r="AF20" s="283"/>
+      <c r="AG20" s="283"/>
+      <c r="AH20" s="283"/>
+      <c r="AI20" s="283"/>
+      <c r="AJ20" s="283"/>
+      <c r="AK20" s="283"/>
+      <c r="AL20" s="283"/>
+      <c r="AM20" s="284"/>
     </row>
     <row r="21" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="216" t="s">
+      <c r="A21" s="195" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="19"/>
@@ -7330,17 +7451,17 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="322"/>
-      <c r="M21" s="323"/>
+      <c r="L21" s="299"/>
+      <c r="M21" s="300"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
-      <c r="R21" s="323"/>
-      <c r="S21" s="324"/>
-      <c r="T21" s="322"/>
-      <c r="U21" s="323"/>
-      <c r="V21" s="323"/>
+      <c r="R21" s="300"/>
+      <c r="S21" s="301"/>
+      <c r="T21" s="299"/>
+      <c r="U21" s="300"/>
+      <c r="V21" s="300"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
       <c r="Y21" s="22"/>
@@ -7360,7 +7481,7 @@
       <c r="AM21" s="26"/>
     </row>
     <row r="22" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="206"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -7371,17 +7492,17 @@
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="325"/>
-      <c r="M22" s="211"/>
+      <c r="L22" s="290"/>
+      <c r="M22" s="204"/>
       <c r="N22" s="78"/>
       <c r="O22" s="78"/>
       <c r="P22" s="78"/>
       <c r="Q22" s="78"/>
-      <c r="R22" s="211"/>
-      <c r="S22" s="328"/>
-      <c r="T22" s="325"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="291"/>
+      <c r="T22" s="290"/>
+      <c r="U22" s="204"/>
+      <c r="V22" s="204"/>
       <c r="W22" s="78"/>
       <c r="X22" s="78"/>
       <c r="Y22" s="78"/>
@@ -7401,7 +7522,7 @@
       <c r="AM22" s="31"/>
     </row>
     <row r="23" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="206"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -7412,17 +7533,17 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="329"/>
-      <c r="M23" s="213"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="190"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
-      <c r="R23" s="213"/>
-      <c r="S23" s="330"/>
-      <c r="T23" s="329"/>
-      <c r="U23" s="213"/>
-      <c r="V23" s="213"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="287"/>
+      <c r="T23" s="292"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="190"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -7442,7 +7563,7 @@
       <c r="AM23" s="39"/>
     </row>
     <row r="24" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="206"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -7453,17 +7574,17 @@
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="325"/>
-      <c r="M24" s="211"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="204"/>
       <c r="N24" s="78"/>
       <c r="O24" s="78"/>
       <c r="P24" s="78"/>
       <c r="Q24" s="78"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="328"/>
-      <c r="T24" s="325"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
+      <c r="R24" s="204"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
       <c r="W24" s="78"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="78"/>
@@ -7483,7 +7604,7 @@
       <c r="AM24" s="31"/>
     </row>
     <row r="25" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="206"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="32"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -7494,17 +7615,17 @@
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="329"/>
-      <c r="M25" s="213"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="190"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
-      <c r="R25" s="213"/>
-      <c r="S25" s="330"/>
-      <c r="T25" s="329"/>
-      <c r="U25" s="213"/>
-      <c r="V25" s="213"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="287"/>
+      <c r="T25" s="292"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="190"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -7524,7 +7645,7 @@
       <c r="AM25" s="39"/>
     </row>
     <row r="26" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="206"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
@@ -7535,17 +7656,17 @@
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
       <c r="K26" s="30"/>
-      <c r="L26" s="325"/>
-      <c r="M26" s="211"/>
+      <c r="L26" s="290"/>
+      <c r="M26" s="204"/>
       <c r="N26" s="78"/>
       <c r="O26" s="78"/>
       <c r="P26" s="78"/>
       <c r="Q26" s="78"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="328"/>
-      <c r="T26" s="325"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="211"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="291"/>
+      <c r="T26" s="290"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
       <c r="W26" s="78"/>
       <c r="X26" s="78"/>
       <c r="Y26" s="78"/>
@@ -7565,7 +7686,7 @@
       <c r="AM26" s="31"/>
     </row>
     <row r="27" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="206"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -7576,17 +7697,17 @@
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="329"/>
-      <c r="M27" s="213"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="190"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
-      <c r="R27" s="213"/>
-      <c r="S27" s="330"/>
-      <c r="T27" s="329"/>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="287"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="190"/>
+      <c r="V27" s="190"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -7606,7 +7727,7 @@
       <c r="AM27" s="39"/>
     </row>
     <row r="28" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="206"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
@@ -7617,17 +7738,17 @@
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
       <c r="K28" s="30"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="211"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="204"/>
       <c r="N28" s="78"/>
       <c r="O28" s="78"/>
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="328"/>
-      <c r="T28" s="325"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="291"/>
+      <c r="T28" s="290"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="204"/>
       <c r="W28" s="78"/>
       <c r="X28" s="78"/>
       <c r="Y28" s="78"/>
@@ -7647,7 +7768,7 @@
       <c r="AM28" s="31"/>
     </row>
     <row r="29" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="206"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
@@ -7658,17 +7779,17 @@
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="329"/>
-      <c r="M29" s="213"/>
+      <c r="L29" s="292"/>
+      <c r="M29" s="190"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
-      <c r="R29" s="213"/>
-      <c r="S29" s="330"/>
-      <c r="T29" s="329"/>
-      <c r="U29" s="213"/>
-      <c r="V29" s="213"/>
+      <c r="R29" s="190"/>
+      <c r="S29" s="287"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="190"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -7688,7 +7809,7 @@
       <c r="AM29" s="39"/>
     </row>
     <row r="30" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="206"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -7699,17 +7820,17 @@
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
       <c r="K30" s="30"/>
-      <c r="L30" s="325"/>
-      <c r="M30" s="211"/>
+      <c r="L30" s="290"/>
+      <c r="M30" s="204"/>
       <c r="N30" s="78"/>
       <c r="O30" s="78"/>
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="328"/>
-      <c r="T30" s="325"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="291"/>
+      <c r="T30" s="290"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
       <c r="W30" s="78"/>
       <c r="X30" s="78"/>
       <c r="Y30" s="78"/>
@@ -7729,7 +7850,7 @@
       <c r="AM30" s="31"/>
     </row>
     <row r="31" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="206"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -7740,17 +7861,17 @@
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="329"/>
-      <c r="M31" s="213"/>
+      <c r="L31" s="292"/>
+      <c r="M31" s="190"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="330"/>
-      <c r="T31" s="329"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
+      <c r="R31" s="190"/>
+      <c r="S31" s="287"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="190"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -7770,7 +7891,7 @@
       <c r="AM31" s="39"/>
     </row>
     <row r="32" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="206"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
@@ -7781,17 +7902,17 @@
       <c r="I32" s="78"/>
       <c r="J32" s="78"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="325"/>
-      <c r="M32" s="211"/>
+      <c r="L32" s="290"/>
+      <c r="M32" s="204"/>
       <c r="N32" s="78"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="328"/>
-      <c r="T32" s="325"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="291"/>
+      <c r="T32" s="290"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="204"/>
       <c r="W32" s="78"/>
       <c r="X32" s="78"/>
       <c r="Y32" s="78"/>
@@ -7811,7 +7932,7 @@
       <c r="AM32" s="31"/>
     </row>
     <row r="33" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="206"/>
+      <c r="A33" s="196"/>
       <c r="B33" s="32"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -7822,17 +7943,17 @@
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="329"/>
-      <c r="M33" s="213"/>
+      <c r="L33" s="292"/>
+      <c r="M33" s="190"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
-      <c r="R33" s="213"/>
-      <c r="S33" s="330"/>
-      <c r="T33" s="329"/>
-      <c r="U33" s="213"/>
-      <c r="V33" s="213"/>
+      <c r="R33" s="190"/>
+      <c r="S33" s="287"/>
+      <c r="T33" s="292"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="190"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -7852,7 +7973,7 @@
       <c r="AM33" s="39"/>
     </row>
     <row r="34" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="206"/>
+      <c r="A34" s="196"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -7863,17 +7984,17 @@
       <c r="I34" s="78"/>
       <c r="J34" s="78"/>
       <c r="K34" s="30"/>
-      <c r="L34" s="325"/>
-      <c r="M34" s="211"/>
+      <c r="L34" s="290"/>
+      <c r="M34" s="204"/>
       <c r="N34" s="78"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
-      <c r="R34" s="211"/>
-      <c r="S34" s="328"/>
-      <c r="T34" s="325"/>
-      <c r="U34" s="211"/>
-      <c r="V34" s="211"/>
+      <c r="R34" s="204"/>
+      <c r="S34" s="291"/>
+      <c r="T34" s="290"/>
+      <c r="U34" s="204"/>
+      <c r="V34" s="204"/>
       <c r="W34" s="78"/>
       <c r="X34" s="78"/>
       <c r="Y34" s="78"/>
@@ -7893,7 +8014,7 @@
       <c r="AM34" s="31"/>
     </row>
     <row r="35" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="207"/>
+      <c r="A35" s="197"/>
       <c r="B35" s="40"/>
       <c r="C35" s="41"/>
       <c r="D35" s="41"/>
@@ -7904,17 +8025,17 @@
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
       <c r="K35" s="53"/>
-      <c r="L35" s="331"/>
-      <c r="M35" s="215"/>
+      <c r="L35" s="288"/>
+      <c r="M35" s="206"/>
       <c r="N35" s="52"/>
       <c r="O35" s="52"/>
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
-      <c r="R35" s="215"/>
-      <c r="S35" s="332"/>
-      <c r="T35" s="331"/>
-      <c r="U35" s="215"/>
-      <c r="V35" s="215"/>
+      <c r="R35" s="206"/>
+      <c r="S35" s="289"/>
+      <c r="T35" s="288"/>
+      <c r="U35" s="206"/>
+      <c r="V35" s="206"/>
       <c r="W35" s="52"/>
       <c r="X35" s="52"/>
       <c r="Y35" s="52"/>
@@ -7934,7 +8055,7 @@
       <c r="AM35" s="54"/>
     </row>
     <row r="36" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="216" t="s">
+      <c r="A36" s="195" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="44"/>
@@ -7947,17 +8068,17 @@
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
       <c r="K36" s="47"/>
-      <c r="L36" s="333"/>
-      <c r="M36" s="218"/>
+      <c r="L36" s="293"/>
+      <c r="M36" s="199"/>
       <c r="N36" s="77"/>
       <c r="O36" s="77"/>
       <c r="P36" s="77"/>
       <c r="Q36" s="77"/>
-      <c r="R36" s="218"/>
-      <c r="S36" s="334"/>
-      <c r="T36" s="333"/>
-      <c r="U36" s="218"/>
-      <c r="V36" s="218"/>
+      <c r="R36" s="199"/>
+      <c r="S36" s="294"/>
+      <c r="T36" s="293"/>
+      <c r="U36" s="199"/>
+      <c r="V36" s="199"/>
       <c r="W36" s="77"/>
       <c r="X36" s="77"/>
       <c r="Y36" s="77"/>
@@ -7977,7 +8098,7 @@
       <c r="AM36" s="48"/>
     </row>
     <row r="37" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="206"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="32"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -7988,17 +8109,17 @@
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
       <c r="K37" s="36"/>
-      <c r="L37" s="329"/>
-      <c r="M37" s="213"/>
+      <c r="L37" s="292"/>
+      <c r="M37" s="190"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
-      <c r="R37" s="213"/>
-      <c r="S37" s="330"/>
-      <c r="T37" s="329"/>
-      <c r="U37" s="213"/>
-      <c r="V37" s="213"/>
+      <c r="R37" s="190"/>
+      <c r="S37" s="287"/>
+      <c r="T37" s="292"/>
+      <c r="U37" s="190"/>
+      <c r="V37" s="190"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -8018,7 +8139,7 @@
       <c r="AM37" s="39"/>
     </row>
     <row r="38" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="206"/>
+      <c r="A38" s="196"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -8029,17 +8150,17 @@
       <c r="I38" s="78"/>
       <c r="J38" s="78"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="325"/>
-      <c r="M38" s="211"/>
+      <c r="L38" s="290"/>
+      <c r="M38" s="204"/>
       <c r="N38" s="78"/>
       <c r="O38" s="78"/>
       <c r="P38" s="78"/>
       <c r="Q38" s="78"/>
-      <c r="R38" s="211"/>
-      <c r="S38" s="328"/>
-      <c r="T38" s="325"/>
-      <c r="U38" s="211"/>
-      <c r="V38" s="211"/>
+      <c r="R38" s="204"/>
+      <c r="S38" s="291"/>
+      <c r="T38" s="290"/>
+      <c r="U38" s="204"/>
+      <c r="V38" s="204"/>
       <c r="W38" s="78"/>
       <c r="X38" s="78"/>
       <c r="Y38" s="78"/>
@@ -8059,7 +8180,7 @@
       <c r="AM38" s="31"/>
     </row>
     <row r="39" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="206"/>
+      <c r="A39" s="196"/>
       <c r="B39" s="32"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -8070,17 +8191,17 @@
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
       <c r="K39" s="36"/>
-      <c r="L39" s="329"/>
-      <c r="M39" s="213"/>
+      <c r="L39" s="292"/>
+      <c r="M39" s="190"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
-      <c r="R39" s="213"/>
-      <c r="S39" s="330"/>
-      <c r="T39" s="329"/>
-      <c r="U39" s="213"/>
-      <c r="V39" s="213"/>
+      <c r="R39" s="190"/>
+      <c r="S39" s="287"/>
+      <c r="T39" s="292"/>
+      <c r="U39" s="190"/>
+      <c r="V39" s="190"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -8100,7 +8221,7 @@
       <c r="AM39" s="39"/>
     </row>
     <row r="40" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="206"/>
+      <c r="A40" s="196"/>
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -8111,17 +8232,17 @@
       <c r="I40" s="78"/>
       <c r="J40" s="78"/>
       <c r="K40" s="30"/>
-      <c r="L40" s="325"/>
-      <c r="M40" s="211"/>
+      <c r="L40" s="290"/>
+      <c r="M40" s="204"/>
       <c r="N40" s="78"/>
       <c r="O40" s="78"/>
       <c r="P40" s="78"/>
       <c r="Q40" s="78"/>
-      <c r="R40" s="211"/>
-      <c r="S40" s="328"/>
-      <c r="T40" s="325"/>
-      <c r="U40" s="211"/>
-      <c r="V40" s="211"/>
+      <c r="R40" s="204"/>
+      <c r="S40" s="291"/>
+      <c r="T40" s="290"/>
+      <c r="U40" s="204"/>
+      <c r="V40" s="204"/>
       <c r="W40" s="78"/>
       <c r="X40" s="78"/>
       <c r="Y40" s="78"/>
@@ -8141,7 +8262,7 @@
       <c r="AM40" s="31"/>
     </row>
     <row r="41" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="207"/>
+      <c r="A41" s="197"/>
       <c r="B41" s="40"/>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
@@ -8152,17 +8273,17 @@
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="331"/>
-      <c r="M41" s="215"/>
+      <c r="L41" s="288"/>
+      <c r="M41" s="206"/>
       <c r="N41" s="52"/>
       <c r="O41" s="52"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="52"/>
-      <c r="R41" s="215"/>
-      <c r="S41" s="332"/>
-      <c r="T41" s="331"/>
-      <c r="U41" s="215"/>
-      <c r="V41" s="215"/>
+      <c r="R41" s="206"/>
+      <c r="S41" s="289"/>
+      <c r="T41" s="288"/>
+      <c r="U41" s="206"/>
+      <c r="V41" s="206"/>
       <c r="W41" s="52"/>
       <c r="X41" s="52"/>
       <c r="Y41" s="52"/>
@@ -8182,7 +8303,7 @@
       <c r="AM41" s="54"/>
     </row>
     <row r="42" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="216" t="s">
+      <c r="A42" s="195" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="44"/>
@@ -8195,17 +8316,17 @@
       <c r="I42" s="77"/>
       <c r="J42" s="77"/>
       <c r="K42" s="47"/>
-      <c r="L42" s="333"/>
-      <c r="M42" s="218"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="199"/>
       <c r="N42" s="77"/>
       <c r="O42" s="77"/>
       <c r="P42" s="77"/>
       <c r="Q42" s="77"/>
-      <c r="R42" s="218"/>
-      <c r="S42" s="334"/>
-      <c r="T42" s="333"/>
-      <c r="U42" s="218"/>
-      <c r="V42" s="218"/>
+      <c r="R42" s="199"/>
+      <c r="S42" s="294"/>
+      <c r="T42" s="293"/>
+      <c r="U42" s="199"/>
+      <c r="V42" s="199"/>
       <c r="W42" s="77"/>
       <c r="X42" s="77"/>
       <c r="Y42" s="77"/>
@@ -8225,7 +8346,7 @@
       <c r="AM42" s="48"/>
     </row>
     <row r="43" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="206"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="32"/>
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
@@ -8236,17 +8357,17 @@
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
       <c r="K43" s="36"/>
-      <c r="L43" s="329"/>
-      <c r="M43" s="213"/>
+      <c r="L43" s="292"/>
+      <c r="M43" s="190"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
-      <c r="R43" s="213"/>
-      <c r="S43" s="330"/>
-      <c r="T43" s="329"/>
-      <c r="U43" s="213"/>
-      <c r="V43" s="213"/>
+      <c r="R43" s="190"/>
+      <c r="S43" s="287"/>
+      <c r="T43" s="292"/>
+      <c r="U43" s="190"/>
+      <c r="V43" s="190"/>
       <c r="W43" s="35"/>
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
@@ -8266,7 +8387,7 @@
       <c r="AM43" s="39"/>
     </row>
     <row r="44" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="206"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
@@ -8277,17 +8398,17 @@
       <c r="I44" s="78"/>
       <c r="J44" s="78"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="325"/>
-      <c r="M44" s="211"/>
+      <c r="L44" s="290"/>
+      <c r="M44" s="204"/>
       <c r="N44" s="78"/>
       <c r="O44" s="78"/>
       <c r="P44" s="78"/>
       <c r="Q44" s="78"/>
-      <c r="R44" s="211"/>
-      <c r="S44" s="328"/>
-      <c r="T44" s="325"/>
-      <c r="U44" s="211"/>
-      <c r="V44" s="211"/>
+      <c r="R44" s="204"/>
+      <c r="S44" s="291"/>
+      <c r="T44" s="290"/>
+      <c r="U44" s="204"/>
+      <c r="V44" s="204"/>
       <c r="W44" s="78"/>
       <c r="X44" s="78"/>
       <c r="Y44" s="78"/>
@@ -8307,7 +8428,7 @@
       <c r="AM44" s="31"/>
     </row>
     <row r="45" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="207"/>
+      <c r="A45" s="197"/>
       <c r="B45" s="40"/>
       <c r="C45" s="50"/>
       <c r="D45" s="50"/>
@@ -8318,17 +8439,17 @@
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
       <c r="K45" s="53"/>
-      <c r="L45" s="331"/>
-      <c r="M45" s="215"/>
+      <c r="L45" s="288"/>
+      <c r="M45" s="206"/>
       <c r="N45" s="52"/>
       <c r="O45" s="52"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="52"/>
-      <c r="R45" s="215"/>
-      <c r="S45" s="332"/>
-      <c r="T45" s="331"/>
-      <c r="U45" s="215"/>
-      <c r="V45" s="215"/>
+      <c r="R45" s="206"/>
+      <c r="S45" s="289"/>
+      <c r="T45" s="288"/>
+      <c r="U45" s="206"/>
+      <c r="V45" s="206"/>
       <c r="W45" s="52"/>
       <c r="X45" s="52"/>
       <c r="Y45" s="52"/>
@@ -8359,17 +8480,17 @@
       <c r="I46" s="102"/>
       <c r="J46" s="102"/>
       <c r="K46" s="102"/>
-      <c r="L46" s="219"/>
-      <c r="M46" s="219"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="194"/>
       <c r="N46" s="102"/>
       <c r="O46" s="102"/>
       <c r="P46" s="102"/>
       <c r="Q46" s="102"/>
       <c r="R46" s="102"/>
       <c r="S46" s="102"/>
-      <c r="T46" s="219"/>
-      <c r="U46" s="219"/>
-      <c r="V46" s="219"/>
+      <c r="T46" s="194"/>
+      <c r="U46" s="194"/>
+      <c r="V46" s="194"/>
       <c r="W46" s="102"/>
       <c r="X46" s="102"/>
       <c r="Y46" s="102"/>
@@ -8389,12 +8510,12 @@
       <c r="AM46" s="102"/>
     </row>
     <row r="47" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="220" t="s">
+      <c r="A47" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="221"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="200"/>
       <c r="E47" s="79"/>
       <c r="F47" s="46"/>
       <c r="G47" s="77"/>
@@ -8402,17 +8523,17 @@
       <c r="I47" s="77"/>
       <c r="J47" s="77"/>
       <c r="K47" s="47"/>
-      <c r="L47" s="333"/>
-      <c r="M47" s="218"/>
+      <c r="L47" s="293"/>
+      <c r="M47" s="199"/>
       <c r="N47" s="77"/>
       <c r="O47" s="77"/>
       <c r="P47" s="77"/>
       <c r="Q47" s="77"/>
-      <c r="R47" s="218"/>
-      <c r="S47" s="334"/>
-      <c r="T47" s="333"/>
-      <c r="U47" s="218"/>
-      <c r="V47" s="218"/>
+      <c r="R47" s="199"/>
+      <c r="S47" s="294"/>
+      <c r="T47" s="293"/>
+      <c r="U47" s="199"/>
+      <c r="V47" s="199"/>
       <c r="W47" s="77"/>
       <c r="X47" s="77"/>
       <c r="Y47" s="77"/>
@@ -8432,10 +8553,10 @@
       <c r="AM47" s="48"/>
     </row>
     <row r="48" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="222"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="223"/>
+      <c r="A48" s="149"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="201"/>
       <c r="E48" s="80"/>
       <c r="F48" s="55"/>
       <c r="G48" s="56"/>
@@ -8443,17 +8564,17 @@
       <c r="I48" s="56"/>
       <c r="J48" s="56"/>
       <c r="K48" s="57"/>
-      <c r="L48" s="329"/>
-      <c r="M48" s="213"/>
+      <c r="L48" s="292"/>
+      <c r="M48" s="190"/>
       <c r="N48" s="56"/>
       <c r="O48" s="56"/>
       <c r="P48" s="56"/>
       <c r="Q48" s="56"/>
-      <c r="R48" s="213"/>
-      <c r="S48" s="330"/>
-      <c r="T48" s="329"/>
-      <c r="U48" s="213"/>
-      <c r="V48" s="213"/>
+      <c r="R48" s="190"/>
+      <c r="S48" s="287"/>
+      <c r="T48" s="292"/>
+      <c r="U48" s="190"/>
+      <c r="V48" s="190"/>
       <c r="W48" s="56"/>
       <c r="X48" s="56"/>
       <c r="Y48" s="56"/>
@@ -8473,10 +8594,10 @@
       <c r="AM48" s="59"/>
     </row>
     <row r="49" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="222"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="223"/>
+      <c r="A49" s="149"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="201"/>
       <c r="E49" s="81"/>
       <c r="F49" s="29"/>
       <c r="G49" s="78"/>
@@ -8484,17 +8605,17 @@
       <c r="I49" s="78"/>
       <c r="J49" s="78"/>
       <c r="K49" s="30"/>
-      <c r="L49" s="325"/>
-      <c r="M49" s="211"/>
+      <c r="L49" s="290"/>
+      <c r="M49" s="204"/>
       <c r="N49" s="78"/>
       <c r="O49" s="78"/>
       <c r="P49" s="78"/>
       <c r="Q49" s="78"/>
-      <c r="R49" s="211"/>
-      <c r="S49" s="328"/>
-      <c r="T49" s="325"/>
-      <c r="U49" s="211"/>
-      <c r="V49" s="211"/>
+      <c r="R49" s="204"/>
+      <c r="S49" s="291"/>
+      <c r="T49" s="290"/>
+      <c r="U49" s="204"/>
+      <c r="V49" s="204"/>
       <c r="W49" s="78"/>
       <c r="X49" s="78"/>
       <c r="Y49" s="78"/>
@@ -8514,10 +8635,10 @@
       <c r="AM49" s="31"/>
     </row>
     <row r="50" spans="1:59" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="222"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="223"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="201"/>
       <c r="E50" s="80"/>
       <c r="F50" s="55"/>
       <c r="G50" s="56"/>
@@ -8525,17 +8646,17 @@
       <c r="I50" s="56"/>
       <c r="J50" s="56"/>
       <c r="K50" s="57"/>
-      <c r="L50" s="329"/>
-      <c r="M50" s="213"/>
+      <c r="L50" s="292"/>
+      <c r="M50" s="190"/>
       <c r="N50" s="56"/>
       <c r="O50" s="56"/>
       <c r="P50" s="56"/>
       <c r="Q50" s="56"/>
-      <c r="R50" s="213"/>
-      <c r="S50" s="330"/>
-      <c r="T50" s="329"/>
-      <c r="U50" s="213"/>
-      <c r="V50" s="213"/>
+      <c r="R50" s="190"/>
+      <c r="S50" s="287"/>
+      <c r="T50" s="292"/>
+      <c r="U50" s="190"/>
+      <c r="V50" s="190"/>
       <c r="W50" s="56"/>
       <c r="X50" s="56"/>
       <c r="Y50" s="56"/>
@@ -8555,10 +8676,10 @@
       <c r="AM50" s="59"/>
     </row>
     <row r="51" spans="1:59" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="224"/>
-      <c r="B51" s="225"/>
-      <c r="C51" s="225"/>
-      <c r="D51" s="226"/>
+      <c r="A51" s="165"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="202"/>
       <c r="E51" s="82"/>
       <c r="F51" s="99"/>
       <c r="G51" s="76"/>
@@ -8566,17 +8687,17 @@
       <c r="I51" s="76"/>
       <c r="J51" s="76"/>
       <c r="K51" s="100"/>
-      <c r="L51" s="344"/>
-      <c r="M51" s="228"/>
+      <c r="L51" s="285"/>
+      <c r="M51" s="193"/>
       <c r="N51" s="76"/>
       <c r="O51" s="76"/>
       <c r="P51" s="76"/>
       <c r="Q51" s="76"/>
-      <c r="R51" s="228"/>
-      <c r="S51" s="345"/>
-      <c r="T51" s="344"/>
-      <c r="U51" s="228"/>
-      <c r="V51" s="228"/>
+      <c r="R51" s="193"/>
+      <c r="S51" s="286"/>
+      <c r="T51" s="285"/>
+      <c r="U51" s="193"/>
+      <c r="V51" s="193"/>
       <c r="W51" s="76"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
@@ -8597,102 +8718,102 @@
     </row>
     <row r="52" spans="1:59" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="229" t="s">
+      <c r="A53" s="173" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="90">
         <v>13</v>
       </c>
-      <c r="C53" s="232" t="s">
+      <c r="C53" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="233"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="233"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="233"/>
-      <c r="K53" s="233"/>
-      <c r="L53" s="233"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="233"/>
-      <c r="O53" s="233"/>
-      <c r="P53" s="233"/>
-      <c r="Q53" s="233"/>
-      <c r="R53" s="233"/>
-      <c r="S53" s="233"/>
-      <c r="T53" s="233"/>
-      <c r="U53" s="233"/>
-      <c r="V53" s="233"/>
-      <c r="W53" s="233"/>
-      <c r="X53" s="233"/>
-      <c r="Y53" s="233"/>
-      <c r="Z53" s="233"/>
-      <c r="AA53" s="233"/>
-      <c r="AB53" s="233"/>
-      <c r="AC53" s="234"/>
-      <c r="AD53" s="229" t="s">
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="177"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="177"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="177"/>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
+      <c r="P53" s="177"/>
+      <c r="Q53" s="177"/>
+      <c r="R53" s="177"/>
+      <c r="S53" s="177"/>
+      <c r="T53" s="177"/>
+      <c r="U53" s="177"/>
+      <c r="V53" s="177"/>
+      <c r="W53" s="177"/>
+      <c r="X53" s="177"/>
+      <c r="Y53" s="177"/>
+      <c r="Z53" s="177"/>
+      <c r="AA53" s="177"/>
+      <c r="AB53" s="177"/>
+      <c r="AC53" s="178"/>
+      <c r="AD53" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AE53" s="235">
+      <c r="AE53" s="179">
         <v>34</v>
       </c>
-      <c r="AF53" s="220" t="s">
+      <c r="AF53" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AG53" s="165"/>
-      <c r="AH53" s="165"/>
-      <c r="AI53" s="165"/>
-      <c r="AJ53" s="165"/>
-      <c r="AK53" s="165"/>
-      <c r="AL53" s="165"/>
-      <c r="AM53" s="166"/>
+      <c r="AG53" s="181"/>
+      <c r="AH53" s="181"/>
+      <c r="AI53" s="181"/>
+      <c r="AJ53" s="181"/>
+      <c r="AK53" s="181"/>
+      <c r="AL53" s="181"/>
+      <c r="AM53" s="182"/>
     </row>
     <row r="54" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="230"/>
+      <c r="A54" s="174"/>
       <c r="B54" s="91">
         <v>16</v>
       </c>
-      <c r="C54" s="240" t="s">
+      <c r="C54" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="241"/>
-      <c r="E54" s="241"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="241"/>
-      <c r="H54" s="241"/>
-      <c r="I54" s="241"/>
-      <c r="J54" s="241"/>
-      <c r="K54" s="241"/>
-      <c r="L54" s="241"/>
-      <c r="M54" s="241"/>
-      <c r="N54" s="241"/>
-      <c r="O54" s="241"/>
-      <c r="P54" s="241"/>
-      <c r="Q54" s="241"/>
-      <c r="R54" s="241"/>
-      <c r="S54" s="241"/>
-      <c r="T54" s="241"/>
-      <c r="U54" s="241"/>
-      <c r="V54" s="241"/>
-      <c r="W54" s="241"/>
-      <c r="X54" s="241"/>
-      <c r="Y54" s="241"/>
-      <c r="Z54" s="241"/>
-      <c r="AA54" s="241"/>
-      <c r="AB54" s="241"/>
-      <c r="AC54" s="242"/>
-      <c r="AD54" s="230"/>
-      <c r="AE54" s="236"/>
-      <c r="AF54" s="237"/>
-      <c r="AG54" s="238"/>
-      <c r="AH54" s="238"/>
-      <c r="AI54" s="238"/>
-      <c r="AJ54" s="238"/>
-      <c r="AK54" s="238"/>
-      <c r="AL54" s="238"/>
-      <c r="AM54" s="239"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184"/>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="184"/>
+      <c r="J54" s="184"/>
+      <c r="K54" s="184"/>
+      <c r="L54" s="184"/>
+      <c r="M54" s="184"/>
+      <c r="N54" s="184"/>
+      <c r="O54" s="184"/>
+      <c r="P54" s="184"/>
+      <c r="Q54" s="184"/>
+      <c r="R54" s="184"/>
+      <c r="S54" s="184"/>
+      <c r="T54" s="184"/>
+      <c r="U54" s="184"/>
+      <c r="V54" s="184"/>
+      <c r="W54" s="184"/>
+      <c r="X54" s="184"/>
+      <c r="Y54" s="184"/>
+      <c r="Z54" s="184"/>
+      <c r="AA54" s="184"/>
+      <c r="AB54" s="184"/>
+      <c r="AC54" s="185"/>
+      <c r="AD54" s="174"/>
+      <c r="AE54" s="160"/>
+      <c r="AF54" s="152"/>
+      <c r="AG54" s="153"/>
+      <c r="AH54" s="153"/>
+      <c r="AI54" s="153"/>
+      <c r="AJ54" s="153"/>
+      <c r="AK54" s="153"/>
+      <c r="AL54" s="153"/>
+      <c r="AM54" s="154"/>
       <c r="AN54" s="89"/>
       <c r="AO54" s="89"/>
       <c r="AP54" s="89"/>
@@ -8715,53 +8836,53 @@
       <c r="BG54" s="18"/>
     </row>
     <row r="55" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="230"/>
+      <c r="A55" s="174"/>
       <c r="B55" s="91">
         <v>19</v>
       </c>
-      <c r="C55" s="240" t="s">
+      <c r="C55" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="241"/>
-      <c r="E55" s="241"/>
-      <c r="F55" s="241"/>
-      <c r="G55" s="241"/>
-      <c r="H55" s="241"/>
-      <c r="I55" s="241"/>
-      <c r="J55" s="241"/>
-      <c r="K55" s="241"/>
-      <c r="L55" s="241"/>
-      <c r="M55" s="241"/>
-      <c r="N55" s="241"/>
-      <c r="O55" s="241"/>
-      <c r="P55" s="241"/>
-      <c r="Q55" s="241"/>
-      <c r="R55" s="241"/>
-      <c r="S55" s="241"/>
-      <c r="T55" s="241"/>
-      <c r="U55" s="241"/>
-      <c r="V55" s="241"/>
-      <c r="W55" s="241"/>
-      <c r="X55" s="241"/>
-      <c r="Y55" s="241"/>
-      <c r="Z55" s="241"/>
-      <c r="AA55" s="241"/>
-      <c r="AB55" s="241"/>
-      <c r="AC55" s="242"/>
-      <c r="AD55" s="230"/>
-      <c r="AE55" s="236">
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
+      <c r="I55" s="184"/>
+      <c r="J55" s="184"/>
+      <c r="K55" s="184"/>
+      <c r="L55" s="184"/>
+      <c r="M55" s="184"/>
+      <c r="N55" s="184"/>
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="184"/>
+      <c r="AC55" s="185"/>
+      <c r="AD55" s="174"/>
+      <c r="AE55" s="160">
         <v>35</v>
       </c>
-      <c r="AF55" s="243" t="s">
+      <c r="AF55" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="AG55" s="244"/>
-      <c r="AH55" s="244"/>
-      <c r="AI55" s="244"/>
-      <c r="AJ55" s="244"/>
-      <c r="AK55" s="244"/>
-      <c r="AL55" s="244"/>
-      <c r="AM55" s="245"/>
+      <c r="AG55" s="163"/>
+      <c r="AH55" s="163"/>
+      <c r="AI55" s="163"/>
+      <c r="AJ55" s="163"/>
+      <c r="AK55" s="163"/>
+      <c r="AL55" s="163"/>
+      <c r="AM55" s="164"/>
       <c r="AN55" s="89"/>
       <c r="AO55" s="89"/>
       <c r="AP55" s="89"/>
@@ -8784,49 +8905,49 @@
       <c r="BG55" s="18"/>
     </row>
     <row r="56" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="230"/>
+      <c r="A56" s="174"/>
       <c r="B56" s="91">
         <v>23</v>
       </c>
-      <c r="C56" s="240" t="s">
+      <c r="C56" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="241"/>
-      <c r="E56" s="241"/>
-      <c r="F56" s="241"/>
-      <c r="G56" s="241"/>
-      <c r="H56" s="241"/>
-      <c r="I56" s="241"/>
-      <c r="J56" s="241"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="241"/>
-      <c r="M56" s="241"/>
-      <c r="N56" s="241"/>
-      <c r="O56" s="241"/>
-      <c r="P56" s="241"/>
-      <c r="Q56" s="241"/>
-      <c r="R56" s="241"/>
-      <c r="S56" s="241"/>
-      <c r="T56" s="241"/>
-      <c r="U56" s="241"/>
-      <c r="V56" s="241"/>
-      <c r="W56" s="241"/>
-      <c r="X56" s="241"/>
-      <c r="Y56" s="241"/>
-      <c r="Z56" s="241"/>
-      <c r="AA56" s="241"/>
-      <c r="AB56" s="241"/>
-      <c r="AC56" s="242"/>
-      <c r="AD56" s="230"/>
-      <c r="AE56" s="236"/>
-      <c r="AF56" s="237"/>
-      <c r="AG56" s="238"/>
-      <c r="AH56" s="238"/>
-      <c r="AI56" s="238"/>
-      <c r="AJ56" s="238"/>
-      <c r="AK56" s="238"/>
-      <c r="AL56" s="238"/>
-      <c r="AM56" s="239"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="184"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="184"/>
+      <c r="L56" s="184"/>
+      <c r="M56" s="184"/>
+      <c r="N56" s="184"/>
+      <c r="O56" s="184"/>
+      <c r="P56" s="184"/>
+      <c r="Q56" s="184"/>
+      <c r="R56" s="184"/>
+      <c r="S56" s="184"/>
+      <c r="T56" s="184"/>
+      <c r="U56" s="184"/>
+      <c r="V56" s="184"/>
+      <c r="W56" s="184"/>
+      <c r="X56" s="184"/>
+      <c r="Y56" s="184"/>
+      <c r="Z56" s="184"/>
+      <c r="AA56" s="184"/>
+      <c r="AB56" s="184"/>
+      <c r="AC56" s="185"/>
+      <c r="AD56" s="174"/>
+      <c r="AE56" s="160"/>
+      <c r="AF56" s="152"/>
+      <c r="AG56" s="153"/>
+      <c r="AH56" s="153"/>
+      <c r="AI56" s="153"/>
+      <c r="AJ56" s="153"/>
+      <c r="AK56" s="153"/>
+      <c r="AL56" s="153"/>
+      <c r="AM56" s="154"/>
       <c r="AN56" s="89"/>
       <c r="AO56" s="89"/>
       <c r="AP56" s="89"/>
@@ -8849,53 +8970,53 @@
       <c r="BG56" s="18"/>
     </row>
     <row r="57" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="230"/>
+      <c r="A57" s="174"/>
       <c r="B57" s="91">
         <v>24</v>
       </c>
-      <c r="C57" s="240" t="s">
+      <c r="C57" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="241"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="241"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="241"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="241"/>
-      <c r="L57" s="241"/>
-      <c r="M57" s="241"/>
-      <c r="N57" s="241"/>
-      <c r="O57" s="241"/>
-      <c r="P57" s="241"/>
-      <c r="Q57" s="241"/>
-      <c r="R57" s="241"/>
-      <c r="S57" s="241"/>
-      <c r="T57" s="241"/>
-      <c r="U57" s="241"/>
-      <c r="V57" s="241"/>
-      <c r="W57" s="241"/>
-      <c r="X57" s="241"/>
-      <c r="Y57" s="241"/>
-      <c r="Z57" s="241"/>
-      <c r="AA57" s="241"/>
-      <c r="AB57" s="241"/>
-      <c r="AC57" s="242"/>
-      <c r="AD57" s="230"/>
-      <c r="AE57" s="236">
+      <c r="D57" s="184"/>
+      <c r="E57" s="184"/>
+      <c r="F57" s="184"/>
+      <c r="G57" s="184"/>
+      <c r="H57" s="184"/>
+      <c r="I57" s="184"/>
+      <c r="J57" s="184"/>
+      <c r="K57" s="184"/>
+      <c r="L57" s="184"/>
+      <c r="M57" s="184"/>
+      <c r="N57" s="184"/>
+      <c r="O57" s="184"/>
+      <c r="P57" s="184"/>
+      <c r="Q57" s="184"/>
+      <c r="R57" s="184"/>
+      <c r="S57" s="184"/>
+      <c r="T57" s="184"/>
+      <c r="U57" s="184"/>
+      <c r="V57" s="184"/>
+      <c r="W57" s="184"/>
+      <c r="X57" s="184"/>
+      <c r="Y57" s="184"/>
+      <c r="Z57" s="184"/>
+      <c r="AA57" s="184"/>
+      <c r="AB57" s="184"/>
+      <c r="AC57" s="185"/>
+      <c r="AD57" s="174"/>
+      <c r="AE57" s="160">
         <v>36</v>
       </c>
-      <c r="AF57" s="222" t="s">
+      <c r="AF57" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="AG57" s="168"/>
-      <c r="AH57" s="168"/>
-      <c r="AI57" s="168"/>
-      <c r="AJ57" s="168"/>
-      <c r="AK57" s="168"/>
-      <c r="AL57" s="168"/>
-      <c r="AM57" s="169"/>
+      <c r="AG57" s="150"/>
+      <c r="AH57" s="150"/>
+      <c r="AI57" s="150"/>
+      <c r="AJ57" s="150"/>
+      <c r="AK57" s="150"/>
+      <c r="AL57" s="150"/>
+      <c r="AM57" s="151"/>
       <c r="AN57" s="85"/>
       <c r="AO57" s="85"/>
       <c r="AP57" s="85"/>
@@ -8918,291 +9039,166 @@
       <c r="BG57" s="18"/>
     </row>
     <row r="58" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="230"/>
+      <c r="A58" s="174"/>
       <c r="B58" s="91">
         <v>50</v>
       </c>
-      <c r="C58" s="246" t="s">
+      <c r="C58" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248"/>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
-      <c r="H58" s="248"/>
-      <c r="I58" s="248"/>
-      <c r="J58" s="248"/>
-      <c r="K58" s="248"/>
-      <c r="L58" s="248"/>
-      <c r="M58" s="248"/>
-      <c r="N58" s="248"/>
-      <c r="O58" s="248"/>
-      <c r="P58" s="248"/>
-      <c r="Q58" s="248"/>
-      <c r="R58" s="248"/>
-      <c r="S58" s="248"/>
-      <c r="T58" s="248"/>
-      <c r="U58" s="248"/>
-      <c r="V58" s="248"/>
-      <c r="W58" s="248"/>
-      <c r="X58" s="248"/>
-      <c r="Y58" s="248"/>
-      <c r="Z58" s="248"/>
-      <c r="AA58" s="248"/>
-      <c r="AB58" s="249"/>
-      <c r="AC58" s="250"/>
-      <c r="AD58" s="230"/>
-      <c r="AE58" s="236"/>
-      <c r="AF58" s="237"/>
-      <c r="AG58" s="238"/>
-      <c r="AH58" s="238"/>
-      <c r="AI58" s="238"/>
-      <c r="AJ58" s="238"/>
-      <c r="AK58" s="238"/>
-      <c r="AL58" s="238"/>
-      <c r="AM58" s="239"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
+      <c r="O58" s="157"/>
+      <c r="P58" s="157"/>
+      <c r="Q58" s="157"/>
+      <c r="R58" s="157"/>
+      <c r="S58" s="157"/>
+      <c r="T58" s="157"/>
+      <c r="U58" s="157"/>
+      <c r="V58" s="157"/>
+      <c r="W58" s="157"/>
+      <c r="X58" s="157"/>
+      <c r="Y58" s="157"/>
+      <c r="Z58" s="157"/>
+      <c r="AA58" s="157"/>
+      <c r="AB58" s="158"/>
+      <c r="AC58" s="159"/>
+      <c r="AD58" s="174"/>
+      <c r="AE58" s="160"/>
+      <c r="AF58" s="152"/>
+      <c r="AG58" s="153"/>
+      <c r="AH58" s="153"/>
+      <c r="AI58" s="153"/>
+      <c r="AJ58" s="153"/>
+      <c r="AK58" s="153"/>
+      <c r="AL58" s="153"/>
+      <c r="AM58" s="154"/>
     </row>
     <row r="59" spans="1:59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="230"/>
+      <c r="A59" s="174"/>
       <c r="B59" s="91">
         <v>51</v>
       </c>
-      <c r="C59" s="246" t="s">
+      <c r="C59" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="247"/>
-      <c r="E59" s="248"/>
-      <c r="F59" s="248"/>
-      <c r="G59" s="248"/>
-      <c r="H59" s="248"/>
-      <c r="I59" s="248"/>
-      <c r="J59" s="248"/>
-      <c r="K59" s="248"/>
-      <c r="L59" s="248"/>
-      <c r="M59" s="248"/>
-      <c r="N59" s="248"/>
-      <c r="O59" s="248"/>
-      <c r="P59" s="248"/>
-      <c r="Q59" s="248"/>
-      <c r="R59" s="248"/>
-      <c r="S59" s="248"/>
-      <c r="T59" s="248"/>
-      <c r="U59" s="248"/>
-      <c r="V59" s="248"/>
-      <c r="W59" s="248"/>
-      <c r="X59" s="248"/>
-      <c r="Y59" s="248"/>
-      <c r="Z59" s="248"/>
-      <c r="AA59" s="248"/>
-      <c r="AB59" s="249"/>
-      <c r="AC59" s="250"/>
-      <c r="AD59" s="230"/>
-      <c r="AE59" s="236">
+      <c r="D59" s="156"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="157"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="157"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="157"/>
+      <c r="O59" s="157"/>
+      <c r="P59" s="157"/>
+      <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
+      <c r="S59" s="157"/>
+      <c r="T59" s="157"/>
+      <c r="U59" s="157"/>
+      <c r="V59" s="157"/>
+      <c r="W59" s="157"/>
+      <c r="X59" s="157"/>
+      <c r="Y59" s="157"/>
+      <c r="Z59" s="157"/>
+      <c r="AA59" s="157"/>
+      <c r="AB59" s="158"/>
+      <c r="AC59" s="159"/>
+      <c r="AD59" s="174"/>
+      <c r="AE59" s="160">
         <v>37</v>
       </c>
-      <c r="AF59" s="243" t="s">
+      <c r="AF59" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="AG59" s="244"/>
-      <c r="AH59" s="244"/>
-      <c r="AI59" s="244"/>
-      <c r="AJ59" s="244"/>
-      <c r="AK59" s="244"/>
-      <c r="AL59" s="244"/>
-      <c r="AM59" s="245"/>
+      <c r="AG59" s="163"/>
+      <c r="AH59" s="163"/>
+      <c r="AI59" s="163"/>
+      <c r="AJ59" s="163"/>
+      <c r="AK59" s="163"/>
+      <c r="AL59" s="163"/>
+      <c r="AM59" s="164"/>
     </row>
     <row r="60" spans="1:59" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="231"/>
+      <c r="A60" s="175"/>
       <c r="B60" s="92">
         <v>52</v>
       </c>
-      <c r="C60" s="253" t="s">
+      <c r="C60" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="254"/>
-      <c r="E60" s="255"/>
-      <c r="F60" s="255"/>
-      <c r="G60" s="255"/>
-      <c r="H60" s="255"/>
-      <c r="I60" s="255"/>
-      <c r="J60" s="255"/>
-      <c r="K60" s="255"/>
-      <c r="L60" s="255"/>
-      <c r="M60" s="255"/>
-      <c r="N60" s="255"/>
-      <c r="O60" s="255"/>
-      <c r="P60" s="255"/>
-      <c r="Q60" s="255"/>
-      <c r="R60" s="255"/>
-      <c r="S60" s="255"/>
-      <c r="T60" s="255"/>
-      <c r="U60" s="255"/>
-      <c r="V60" s="255"/>
-      <c r="W60" s="255"/>
-      <c r="X60" s="255"/>
-      <c r="Y60" s="255"/>
-      <c r="Z60" s="255"/>
-      <c r="AA60" s="255"/>
-      <c r="AB60" s="256"/>
-      <c r="AC60" s="257"/>
-      <c r="AD60" s="231"/>
-      <c r="AE60" s="251"/>
-      <c r="AF60" s="224"/>
-      <c r="AG60" s="225"/>
-      <c r="AH60" s="225"/>
-      <c r="AI60" s="225"/>
-      <c r="AJ60" s="225"/>
-      <c r="AK60" s="225"/>
-      <c r="AL60" s="225"/>
-      <c r="AM60" s="252"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="170"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
+      <c r="L60" s="170"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="170"/>
+      <c r="O60" s="170"/>
+      <c r="P60" s="170"/>
+      <c r="Q60" s="170"/>
+      <c r="R60" s="170"/>
+      <c r="S60" s="170"/>
+      <c r="T60" s="170"/>
+      <c r="U60" s="170"/>
+      <c r="V60" s="170"/>
+      <c r="W60" s="170"/>
+      <c r="X60" s="170"/>
+      <c r="Y60" s="170"/>
+      <c r="Z60" s="170"/>
+      <c r="AA60" s="170"/>
+      <c r="AB60" s="171"/>
+      <c r="AC60" s="172"/>
+      <c r="AD60" s="175"/>
+      <c r="AE60" s="161"/>
+      <c r="AF60" s="165"/>
+      <c r="AG60" s="166"/>
+      <c r="AH60" s="166"/>
+      <c r="AI60" s="166"/>
+      <c r="AJ60" s="166"/>
+      <c r="AK60" s="166"/>
+      <c r="AL60" s="166"/>
+      <c r="AM60" s="167"/>
     </row>
   </sheetData>
   <sheetProtection password="84CA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="178">
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="T10:AM20"/>
-    <mergeCell ref="AE57:AE58"/>
-    <mergeCell ref="AF57:AM58"/>
-    <mergeCell ref="C58:AC58"/>
-    <mergeCell ref="C56:AC56"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="C59:AC59"/>
-    <mergeCell ref="AE59:AE60"/>
-    <mergeCell ref="AF59:AM60"/>
-    <mergeCell ref="C60:AC60"/>
-    <mergeCell ref="AE53:AE54"/>
-    <mergeCell ref="AF53:AM54"/>
-    <mergeCell ref="C54:AC54"/>
-    <mergeCell ref="C55:AC55"/>
-    <mergeCell ref="AE55:AE56"/>
-    <mergeCell ref="AF55:AM56"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="C53:AC53"/>
-    <mergeCell ref="AD53:AD60"/>
-    <mergeCell ref="C57:AC57"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="A47:D51"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="R19:S20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="L12:M18"/>
-    <mergeCell ref="N12:N18"/>
-    <mergeCell ref="O12:O18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q12:Q18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D10:D20"/>
-    <mergeCell ref="J12:J18"/>
-    <mergeCell ref="K12:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AB1:AM4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="F3:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="AB5:AM9"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="W9:Z9"/>
     <mergeCell ref="A1:D9"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="F10:K10"/>
@@ -9218,25 +9214,150 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="E10:E18"/>
-    <mergeCell ref="AB5:AM9"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AM4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="F3:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="L12:M18"/>
+    <mergeCell ref="N12:N18"/>
+    <mergeCell ref="O12:O18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q12:Q18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J12:J18"/>
+    <mergeCell ref="K12:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="P12:P18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="R19:S20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="C53:AC53"/>
+    <mergeCell ref="AD53:AD60"/>
+    <mergeCell ref="C57:AC57"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="A47:D51"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="C59:AC59"/>
+    <mergeCell ref="AE59:AE60"/>
+    <mergeCell ref="AF59:AM60"/>
+    <mergeCell ref="C60:AC60"/>
+    <mergeCell ref="AE53:AE54"/>
+    <mergeCell ref="AF53:AM54"/>
+    <mergeCell ref="C54:AC54"/>
+    <mergeCell ref="C55:AC55"/>
+    <mergeCell ref="AE55:AE56"/>
+    <mergeCell ref="AF55:AM56"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="T10:AM20"/>
+    <mergeCell ref="AE57:AE58"/>
+    <mergeCell ref="AF57:AM58"/>
+    <mergeCell ref="C58:AC58"/>
+    <mergeCell ref="C56:AC56"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:V38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="3.937007874015748E-2" top="0.98425196850393704" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
